--- a/src/tests/java/auth/dev/net/data_files/test_forbidden_password.xlsx
+++ b/src/tests/java/auth/dev/net/data_files/test_forbidden_password.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="ForbiddenTest" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="672">
   <si>
     <t>password</t>
   </si>
@@ -2027,6 +2028,9 @@
   </si>
   <si>
     <t>бармалей!!</t>
+  </si>
+  <si>
+    <t>10021983</t>
   </si>
 </sst>
 </file>
@@ -2535,12 +2539,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2885,14 +2891,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
+      <selection activeCell="B982" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2900,7 +2906,7 @@
       <c r="A1" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>665</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2911,7 +2917,7 @@
       <c r="A2" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2922,7 +2928,7 @@
       <c r="A3" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2933,7 +2939,7 @@
       <c r="A4" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2944,7 +2950,7 @@
       <c r="A5" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>1111</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2955,7 +2961,7 @@
       <c r="A6" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>1010101</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2966,7 +2972,7 @@
       <c r="A7" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1012008</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2977,7 +2983,7 @@
       <c r="A8" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1012009</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2988,7 +2994,7 @@
       <c r="A9" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1012010</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2999,7 +3005,7 @@
       <c r="A10" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>1012011</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3010,7 +3016,7 @@
       <c r="A11" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1012012</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3021,7 +3027,7 @@
       <c r="A12" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>1012013</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3032,7 +3038,7 @@
       <c r="A13" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>1020304</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3043,7 +3049,7 @@
       <c r="A14" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>102030405</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3054,7 +3060,7 @@
       <c r="A15" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>1111987</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3065,7 +3071,7 @@
       <c r="A16" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>1234567</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3076,7 +3082,7 @@
       <c r="A17" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>123456789</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3087,7 +3093,7 @@
       <c r="A18" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>192837465</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3098,7 +3104,7 @@
       <c r="A19" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>2031975</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3109,7 +3115,7 @@
       <c r="A20" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>2051982</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3120,7 +3126,7 @@
       <c r="A21" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>2071977</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3131,7 +3137,7 @@
       <c r="A22" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>2071986</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3142,7 +3148,7 @@
       <c r="A23" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>2121993</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3153,7 +3159,7 @@
       <c r="A24" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>3121980</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3164,7 +3170,7 @@
       <c r="A25" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>4031988</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3175,7 +3181,7 @@
       <c r="A26" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>4121988</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3186,7 +3192,7 @@
       <c r="A27" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>6111980</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3197,7 +3203,7 @@
       <c r="A28" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>663352826</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3208,7 +3214,7 @@
       <c r="A29" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>677061062</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3219,7 +3225,7 @@
       <c r="A30" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>7101995</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3230,7 +3236,7 @@
       <c r="A31" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>7122010</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3241,7 +3247,7 @@
       <c r="A32" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>7831505</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3252,7 +3258,7 @@
       <c r="A33" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>7931505</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3263,7 +3269,7 @@
       <c r="A34" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>8918041</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3274,7 +3280,7 @@
       <c r="A35" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>9051945</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3285,7 +3291,7 @@
       <c r="A36" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>9090909</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -3296,7 +3302,7 @@
       <c r="A37" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>9876543</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -3307,7 +3313,7 @@
       <c r="A38" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>987654321</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3318,8 +3324,8 @@
       <c r="A39" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B39" s="2">
-        <v>10021983</v>
+      <c r="B39" s="4" t="s">
+        <v>671</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>668</v>
@@ -3329,7 +3335,7 @@
       <c r="A40" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>10021984</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3340,7 +3346,7 @@
       <c r="A41" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>10101010</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3351,7 +3357,7 @@
       <c r="A42" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>10102010</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3362,7 +3368,7 @@
       <c r="A43" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>10121978</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3373,7 +3379,7 @@
       <c r="A44" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>10203040</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3384,7 +3390,7 @@
       <c r="A45" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>1020304050</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3395,7 +3401,7 @@
       <c r="A46" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>10203150</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3406,7 +3412,7 @@
       <c r="A47" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>10293847</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3417,7 +3423,7 @@
       <c r="A48" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>1029384756</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3428,7 +3434,7 @@
       <c r="A49" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>106261982</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3439,7 +3445,7 @@
       <c r="A50" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>11021967</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3450,7 +3456,7 @@
       <c r="A51" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>11031993</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3461,7 +3467,7 @@
       <c r="A52" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
         <v>11081996</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -3472,7 +3478,7 @@
       <c r="A53" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>11101985</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3483,7 +3489,7 @@
       <c r="A54" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="4">
         <v>11110000</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3494,7 +3500,7 @@
       <c r="A55" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <v>11111111</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3505,7 +3511,7 @@
       <c r="A56" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4">
         <v>111111111</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3516,7 +3522,7 @@
       <c r="A57" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>1111111111</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3527,7 +3533,7 @@
       <c r="A58" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <v>11111111111</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3538,7 +3544,7 @@
       <c r="A59" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>1111111111111110</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3549,7 +3555,7 @@
       <c r="A60" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <v>1111122222</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3560,7 +3566,7 @@
       <c r="A61" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3571,7 +3577,7 @@
       <c r="A62" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <v>11112222</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3582,7 +3588,7 @@
       <c r="A63" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3593,7 +3599,7 @@
       <c r="A64" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4">
         <v>111222333</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3604,7 +3610,7 @@
       <c r="A65" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>11221122</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3615,7 +3621,7 @@
       <c r="A66" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <v>11223344</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3626,7 +3632,7 @@
       <c r="A67" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4">
         <v>1122334455</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3637,7 +3643,7 @@
       <c r="A68" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="4">
         <v>112233445566</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3648,7 +3654,7 @@
       <c r="A69" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <v>11223366</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3659,7 +3665,7 @@
       <c r="A70" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3670,7 +3676,7 @@
       <c r="A71" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="4">
         <v>11235813</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3681,7 +3687,7 @@
       <c r="A72" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="4">
         <v>1123581321</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3692,7 +3698,7 @@
       <c r="A73" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="4">
         <v>11811397768211</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3703,7 +3709,7 @@
       <c r="A74" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3714,7 +3720,7 @@
       <c r="A75" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="4">
         <v>12121212</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3725,7 +3731,7 @@
       <c r="A76" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="4">
         <v>1212121212</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3736,7 +3742,7 @@
       <c r="A77" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="4">
         <v>12122012</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3747,7 +3753,7 @@
       <c r="A78" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="4">
         <v>12131415</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3758,7 +3764,7 @@
       <c r="A79" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="4">
         <v>1213141516</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3769,7 +3775,7 @@
       <c r="A80" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="4">
         <v>12211221</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3780,7 +3786,7 @@
       <c r="A81" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="4">
         <v>1223334444</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3791,7 +3797,7 @@
       <c r="A82" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="4">
         <v>123123123</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3802,7 +3808,7 @@
       <c r="A83" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="4">
         <v>123123123123</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3813,7 +3819,7 @@
       <c r="A84" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3824,7 +3830,7 @@
       <c r="A85" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3835,7 +3841,7 @@
       <c r="A86" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="4">
         <v>123234345</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3846,7 +3852,7 @@
       <c r="A87" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="4">
         <v>123321123</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3857,7 +3863,7 @@
       <c r="A88" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="4">
         <v>123321123321</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3868,7 +3874,7 @@
       <c r="A89" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="4">
         <v>12340987</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3879,7 +3885,7 @@
       <c r="A90" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="4">
         <v>12341234</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -3890,7 +3896,7 @@
       <c r="A91" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4">
         <v>12344321</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3901,7 +3907,7 @@
       <c r="A92" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="4">
         <v>1234509876</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3912,7 +3918,7 @@
       <c r="A93" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="4">
         <v>1234512345</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3923,7 +3929,7 @@
       <c r="A94" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="4">
         <v>12345138</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3934,7 +3940,7 @@
       <c r="A95" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="4">
         <v>123454321</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3945,7 +3951,7 @@
       <c r="A96" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="4">
         <v>1234554321</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3956,7 +3962,7 @@
       <c r="A97" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="4">
         <v>123456123</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3967,7 +3973,7 @@
       <c r="A98" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="4">
         <v>123456123456</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3978,7 +3984,7 @@
       <c r="A99" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="4">
         <v>12345654321</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3989,7 +3995,7 @@
       <c r="A100" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="4">
         <v>123456654321</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -4000,7 +4006,7 @@
       <c r="A101" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="4">
         <v>1234567654321</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -4011,7 +4017,7 @@
       <c r="A102" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="4">
         <v>12345677</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -4022,7 +4028,7 @@
       <c r="A103" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="4">
         <v>12345677654321</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -4033,7 +4039,7 @@
       <c r="A104" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="4">
         <v>12345678</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -4044,7 +4050,7 @@
       <c r="A105" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="4">
         <v>1234567887654320</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -4055,7 +4061,7 @@
       <c r="A106" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="4">
         <v>123456789</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -4066,7 +4072,7 @@
       <c r="A107" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="4">
         <v>1234567890</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -4077,7 +4083,7 @@
       <c r="A108" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -4088,7 +4094,7 @@
       <c r="A109" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="4">
         <v>12345678900</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -4099,7 +4105,7 @@
       <c r="A110" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="4">
         <v>12345678901</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -4110,7 +4116,7 @@
       <c r="A111" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -4121,7 +4127,7 @@
       <c r="A112" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -4132,7 +4138,7 @@
       <c r="A113" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -4143,7 +4149,7 @@
       <c r="A114" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="4">
         <v>1234567891</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -4154,7 +4160,7 @@
       <c r="A115" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="4">
         <v>12345678910</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -4165,7 +4171,7 @@
       <c r="A116" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="4">
         <v>123456789123</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -4176,7 +4182,7 @@
       <c r="A117" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -4187,7 +4193,7 @@
       <c r="A118" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="4">
         <v>1234567899</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4198,7 +4204,7 @@
       <c r="A119" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -4209,7 +4215,7 @@
       <c r="A120" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -4220,7 +4226,7 @@
       <c r="A121" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -4231,7 +4237,7 @@
       <c r="A122" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -4242,7 +4248,7 @@
       <c r="A123" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -4253,7 +4259,7 @@
       <c r="A124" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -4264,7 +4270,7 @@
       <c r="A125" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -4275,7 +4281,7 @@
       <c r="A126" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -4286,7 +4292,7 @@
       <c r="A127" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -4297,7 +4303,7 @@
       <c r="A128" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -4308,7 +4314,7 @@
       <c r="A129" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -4319,7 +4325,7 @@
       <c r="A130" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -4330,7 +4336,7 @@
       <c r="A131" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -4341,7 +4347,7 @@
       <c r="A132" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="4">
         <v>12345679</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -4352,7 +4358,7 @@
       <c r="A133" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -4363,7 +4369,7 @@
       <c r="A134" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -4374,7 +4380,7 @@
       <c r="A135" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -4385,7 +4391,7 @@
       <c r="A136" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -4396,7 +4402,7 @@
       <c r="A137" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="4">
         <v>123456987</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -4407,7 +4413,7 @@
       <c r="A138" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -4418,7 +4424,7 @@
       <c r="A139" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -4429,7 +4435,7 @@
       <c r="A140" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4440,7 +4446,7 @@
       <c r="A141" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -4451,7 +4457,7 @@
       <c r="A142" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -4462,7 +4468,7 @@
       <c r="A143" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -4473,7 +4479,7 @@
       <c r="A144" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -4484,7 +4490,7 @@
       <c r="A145" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -4495,7 +4501,7 @@
       <c r="A146" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -4506,7 +4512,7 @@
       <c r="A147" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -4517,7 +4523,7 @@
       <c r="A148" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -4528,7 +4534,7 @@
       <c r="A149" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -4539,7 +4545,7 @@
       <c r="A150" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -4550,7 +4556,7 @@
       <c r="A151" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -4561,7 +4567,7 @@
       <c r="A152" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -4572,7 +4578,7 @@
       <c r="A153" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -4583,7 +4589,7 @@
       <c r="A154" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -4594,7 +4600,7 @@
       <c r="A155" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -4605,7 +4611,7 @@
       <c r="A156" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="4">
         <v>12348765</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -4616,7 +4622,7 @@
       <c r="A157" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -4627,7 +4633,7 @@
       <c r="A158" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -4638,7 +4644,7 @@
       <c r="A159" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -4649,7 +4655,7 @@
       <c r="A160" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -4660,7 +4666,7 @@
       <c r="A161" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="4">
         <v>123654789</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -4671,7 +4677,7 @@
       <c r="A162" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="4">
         <v>12369874</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -4682,7 +4688,7 @@
       <c r="A163" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="4">
         <v>123698741</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -4693,7 +4699,7 @@
       <c r="A164" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="4">
         <v>123698745</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -4704,7 +4710,7 @@
       <c r="A165" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="4">
         <v>123789456</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -4715,7 +4721,7 @@
       <c r="A166" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -4726,7 +4732,7 @@
       <c r="A167" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -4737,7 +4743,7 @@
       <c r="A168" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -4748,7 +4754,7 @@
       <c r="A169" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -4759,7 +4765,7 @@
       <c r="A170" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -4770,7 +4776,7 @@
       <c r="A171" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -4781,7 +4787,7 @@
       <c r="A172" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -4792,7 +4798,7 @@
       <c r="A173" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -4803,7 +4809,7 @@
       <c r="A174" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -4814,7 +4820,7 @@
       <c r="A175" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="4">
         <v>12991299</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -4825,7 +4831,7 @@
       <c r="A176" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -4836,7 +4842,7 @@
       <c r="A177" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -4847,7 +4853,7 @@
       <c r="A178" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -4858,7 +4864,7 @@
       <c r="A179" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -4869,7 +4875,7 @@
       <c r="A180" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="4">
         <v>13021302</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -4880,7 +4886,7 @@
       <c r="A181" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="4">
         <v>13131313</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -4891,7 +4897,7 @@
       <c r="A182" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="4">
         <v>13243546</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -4902,7 +4908,7 @@
       <c r="A183" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="4">
         <v>134679852</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -4913,7 +4919,7 @@
       <c r="A184" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="4">
         <v>1357908642</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -4924,7 +4930,7 @@
       <c r="A185" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="4">
         <v>1357913579</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -4935,7 +4941,7 @@
       <c r="A186" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="4">
         <v>135792468</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -4946,7 +4952,7 @@
       <c r="A187" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="4">
         <v>1357924680</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -4957,7 +4963,7 @@
       <c r="A188" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="4">
         <v>135797531</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -4968,7 +4974,7 @@
       <c r="A189" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="4">
         <v>135798642</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -4979,7 +4985,7 @@
       <c r="A190" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -4990,7 +4996,7 @@
       <c r="A191" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="4">
         <v>14082010</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -5001,7 +5007,7 @@
       <c r="A192" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="4">
         <v>14121966</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -5012,7 +5018,7 @@
       <c r="A193" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="4">
         <v>1463587900</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -5023,7 +5029,7 @@
       <c r="A194" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="4">
         <v>1470258369</v>
       </c>
       <c r="C194" s="2" t="s">
@@ -5034,7 +5040,7 @@
       <c r="A195" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="4">
         <v>147258369</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -5045,7 +5051,7 @@
       <c r="A196" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="4">
         <v>147852369</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -5056,7 +5062,7 @@
       <c r="A197" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="4">
         <v>14789632</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -5067,7 +5073,7 @@
       <c r="A198" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="4">
         <v>147896321</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -5078,7 +5084,7 @@
       <c r="A199" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="4">
         <v>147896325</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -5089,7 +5095,7 @@
       <c r="A200" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="4">
         <v>14881488</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -5100,7 +5106,7 @@
       <c r="A201" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="4">
         <v>15031306</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -5111,7 +5117,7 @@
       <c r="A202" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="4">
         <v>15031990</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -5122,7 +5128,7 @@
       <c r="A203" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="4">
         <v>15081977</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -5133,7 +5139,7 @@
       <c r="A204" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="4">
         <v>15151515</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -5144,7 +5150,7 @@
       <c r="A205" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="4">
         <v>15426378</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -5155,7 +5161,7 @@
       <c r="A206" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="4">
         <v>159159159</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -5166,7 +5172,7 @@
       <c r="A207" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="4">
         <v>159357258</v>
       </c>
       <c r="C207" s="2" t="s">
@@ -5177,7 +5183,7 @@
       <c r="A208" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="4">
         <v>159753456</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -5188,7 +5194,7 @@
       <c r="A209" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="4">
         <v>16091981</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -5199,7 +5205,7 @@
       <c r="A210" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="4">
         <v>16271627</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -5210,7 +5216,7 @@
       <c r="A211" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="4">
         <v>17021979</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -5221,7 +5227,7 @@
       <c r="A212" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="4">
         <v>17151715</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -5232,7 +5238,7 @@
       <c r="A213" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="4">
         <v>17231228</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -5243,7 +5249,7 @@
       <c r="A214" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="4">
         <v>17931993</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -5254,7 +5260,7 @@
       <c r="A215" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="4">
         <v>18041962</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -5265,7 +5271,7 @@
       <c r="A216" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="4">
         <v>18051990</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -5276,7 +5282,7 @@
       <c r="A217" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="4">
         <v>18061994</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -5287,7 +5293,7 @@
       <c r="A218" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="4">
         <v>18273645</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -5298,7 +5304,7 @@
       <c r="A219" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="4">
         <v>19091988</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -5309,7 +5315,7 @@
       <c r="A220" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="4">
         <v>192837465</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -5320,7 +5326,7 @@
       <c r="A221" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="4">
         <v>19291929</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -5331,7 +5337,7 @@
       <c r="A222" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -5342,7 +5348,7 @@
       <c r="A223" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="4">
         <v>19411945</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -5353,7 +5359,7 @@
       <c r="A224" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="4">
         <v>19451945</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -5364,7 +5370,7 @@
       <c r="A225" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="4">
         <v>19541954</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -5375,7 +5381,7 @@
       <c r="A226" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="4">
         <v>19551955</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -5386,7 +5392,7 @@
       <c r="A227" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="4">
         <v>19561956</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -5397,7 +5403,7 @@
       <c r="A228" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="4">
         <v>19571957</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -5408,7 +5414,7 @@
       <c r="A229" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="4">
         <v>19581958</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -5419,7 +5425,7 @@
       <c r="A230" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="4">
         <v>19591959</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -5430,7 +5436,7 @@
       <c r="A231" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="4">
         <v>19601960</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -5441,7 +5447,7 @@
       <c r="A232" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="4">
         <v>19611961</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -5452,7 +5458,7 @@
       <c r="A233" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="4">
         <v>19621962</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -5463,7 +5469,7 @@
       <c r="A234" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="4">
         <v>19631963</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -5474,7 +5480,7 @@
       <c r="A235" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="4">
         <v>19641964</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -5485,7 +5491,7 @@
       <c r="A236" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="4">
         <v>19651965</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -5496,7 +5502,7 @@
       <c r="A237" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="4">
         <v>19661966</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -5507,7 +5513,7 @@
       <c r="A238" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="4">
         <v>19671967</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -5518,7 +5524,7 @@
       <c r="A239" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="4">
         <v>19681968</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -5529,7 +5535,7 @@
       <c r="A240" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="4">
         <v>19691969</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -5540,7 +5546,7 @@
       <c r="A241" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="4">
         <v>19701970</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -5551,7 +5557,7 @@
       <c r="A242" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="4">
         <v>19711971</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -5562,7 +5568,7 @@
       <c r="A243" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="4">
         <v>19721972</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -5573,7 +5579,7 @@
       <c r="A244" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="4">
         <v>19731973</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -5584,7 +5590,7 @@
       <c r="A245" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="4">
         <v>19741974</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -5595,7 +5601,7 @@
       <c r="A246" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="4">
         <v>19743001</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -5606,7 +5612,7 @@
       <c r="A247" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="4">
         <v>19750307</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -5617,7 +5623,7 @@
       <c r="A248" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="4">
         <v>19751975</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -5628,7 +5634,7 @@
       <c r="A249" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="4">
         <v>19761976</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -5639,7 +5645,7 @@
       <c r="A250" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="4">
         <v>19771977</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -5650,7 +5656,7 @@
       <c r="A251" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="4">
         <v>19781978</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -5661,7 +5667,7 @@
       <c r="A252" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="4">
         <v>19791979</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -5672,7 +5678,7 @@
       <c r="A253" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="4">
         <v>19801980</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -5683,7 +5689,7 @@
       <c r="A254" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="4">
         <v>19811981</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -5694,7 +5700,7 @@
       <c r="A255" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="4">
         <v>19812000</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -5705,7 +5711,7 @@
       <c r="A256" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="4">
         <v>19821982</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -5716,7 +5722,7 @@
       <c r="A257" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="4">
         <v>19831983</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -5727,7 +5733,7 @@
       <c r="A258" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="4">
         <v>19841984</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -5738,7 +5744,7 @@
       <c r="A259" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="4">
         <v>19851985</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -5749,7 +5755,7 @@
       <c r="A260" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="4">
         <v>19861986</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -5760,7 +5766,7 @@
       <c r="A261" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="4">
         <v>19871987</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -5771,7 +5777,7 @@
       <c r="A262" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="4">
         <v>19877891</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -5782,7 +5788,7 @@
       <c r="A263" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="4">
         <v>19881988</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -5793,7 +5799,7 @@
       <c r="A264" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="4">
         <v>19891989</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -5804,7 +5810,7 @@
       <c r="A265" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="4">
         <v>19901990</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -5815,7 +5821,7 @@
       <c r="A266" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="4">
         <v>19911991</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -5826,7 +5832,7 @@
       <c r="A267" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="4">
         <v>19921992</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -5837,7 +5843,7 @@
       <c r="A268" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="4">
         <v>19931971</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -5848,7 +5854,7 @@
       <c r="A269" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="4">
         <v>19931993</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -5859,7 +5865,7 @@
       <c r="A270" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="4">
         <v>19933991</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -5870,7 +5876,7 @@
       <c r="A271" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="4">
         <v>19941994</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -5881,7 +5887,7 @@
       <c r="A272" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="4">
         <v>19950616</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -5892,7 +5898,7 @@
       <c r="A273" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="4">
         <v>19951995</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -5903,7 +5909,7 @@
       <c r="A274" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="4">
         <v>19961996</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -5914,7 +5920,7 @@
       <c r="A275" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="4">
         <v>19971997</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -5925,7 +5931,7 @@
       <c r="A276" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="4">
         <v>19981998</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -5936,7 +5942,7 @@
       <c r="A277" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="4">
         <v>19991999</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -5947,7 +5953,7 @@
       <c r="A278" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -5958,7 +5964,7 @@
       <c r="A279" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -5969,7 +5975,7 @@
       <c r="A280" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -5980,7 +5986,7 @@
       <c r="A281" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -5991,7 +5997,7 @@
       <c r="A282" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -6002,7 +6008,7 @@
       <c r="A283" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -6013,7 +6019,7 @@
       <c r="A284" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C284" s="2" t="s">
@@ -6024,7 +6030,7 @@
       <c r="A285" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -6035,7 +6041,7 @@
       <c r="A286" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -6046,7 +6052,7 @@
       <c r="A287" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -6057,7 +6063,7 @@
       <c r="A288" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C288" s="2" t="s">
@@ -6068,7 +6074,7 @@
       <c r="A289" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C289" s="2" t="s">
@@ -6079,7 +6085,7 @@
       <c r="A290" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -6090,7 +6096,7 @@
       <c r="A291" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C291" s="2" t="s">
@@ -6101,7 +6107,7 @@
       <c r="A292" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -6112,7 +6118,7 @@
       <c r="A293" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -6123,7 +6129,7 @@
       <c r="A294" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -6134,7 +6140,7 @@
       <c r="A295" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -6145,7 +6151,7 @@
       <c r="A296" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="4">
         <v>20002000</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -6156,7 +6162,7 @@
       <c r="A297" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="4">
         <v>20012001</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -6167,7 +6173,7 @@
       <c r="A298" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="4">
         <v>20021983</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -6178,7 +6184,7 @@
       <c r="A299" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="4">
         <v>20021989</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -6189,7 +6195,7 @@
       <c r="A300" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="4">
         <v>20022002</v>
       </c>
       <c r="C300" s="2" t="s">
@@ -6200,7 +6206,7 @@
       <c r="A301" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="4">
         <v>20032003</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -6211,7 +6217,7 @@
       <c r="A302" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="4">
         <v>20041988</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -6222,7 +6228,7 @@
       <c r="A303" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="4">
         <v>20042004</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -6233,7 +6239,7 @@
       <c r="A304" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="4">
         <v>20052005</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -6244,7 +6250,7 @@
       <c r="A305" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="4">
         <v>20062006</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -6255,7 +6261,7 @@
       <c r="A306" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -6266,7 +6272,7 @@
       <c r="A307" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="4">
         <v>20072007</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -6277,7 +6283,7 @@
       <c r="A308" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308" s="4">
         <v>20082008</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -6288,7 +6294,7 @@
       <c r="A309" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309" s="4">
         <v>20092009</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -6299,7 +6305,7 @@
       <c r="A310" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="4">
         <v>20102010</v>
       </c>
       <c r="C310" s="2" t="s">
@@ -6310,7 +6316,7 @@
       <c r="A311" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="4">
         <v>20111980</v>
       </c>
       <c r="C311" s="2" t="s">
@@ -6321,7 +6327,7 @@
       <c r="A312" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="4">
         <v>20112011</v>
       </c>
       <c r="C312" s="2" t="s">
@@ -6332,7 +6338,7 @@
       <c r="A313" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313" s="4">
         <v>20122012</v>
       </c>
       <c r="C313" s="2" t="s">
@@ -6343,7 +6349,7 @@
       <c r="A314" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="4">
         <v>20132013</v>
       </c>
       <c r="C314" s="2" t="s">
@@ -6354,7 +6360,7 @@
       <c r="A315" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315" s="4">
         <v>20142014</v>
       </c>
       <c r="C315" s="2" t="s">
@@ -6365,7 +6371,7 @@
       <c r="A316" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316" s="4">
         <v>21011988</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -6376,7 +6382,7 @@
       <c r="A317" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317" s="4">
         <v>21121990</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -6387,7 +6393,7 @@
       <c r="A318" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318" s="4">
         <v>21121991</v>
       </c>
       <c r="C318" s="2" t="s">
@@ -6398,7 +6404,7 @@
       <c r="A319" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319" s="4">
         <v>21122012</v>
       </c>
       <c r="C319" s="2" t="s">
@@ -6409,7 +6415,7 @@
       <c r="A320" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320" s="4">
         <v>21212121</v>
       </c>
       <c r="C320" s="2" t="s">
@@ -6420,7 +6426,7 @@
       <c r="A321" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321" s="4">
         <v>21320000</v>
       </c>
       <c r="C321" s="2" t="s">
@@ -6431,7 +6437,7 @@
       <c r="A322" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322" s="4">
         <v>22051977</v>
       </c>
       <c r="C322" s="2" t="s">
@@ -6442,7 +6448,7 @@
       <c r="A323" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323" s="4">
         <v>22051987</v>
       </c>
       <c r="C323" s="2" t="s">
@@ -6453,7 +6459,7 @@
       <c r="A324" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324" s="4">
         <v>22061941</v>
       </c>
       <c r="C324" s="2" t="s">
@@ -6464,7 +6470,7 @@
       <c r="A325" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325" s="4">
         <v>22121986</v>
       </c>
       <c r="C325" s="2" t="s">
@@ -6475,7 +6481,7 @@
       <c r="A326" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326" s="4">
         <v>22222222</v>
       </c>
       <c r="C326" s="2" t="s">
@@ -6486,7 +6492,7 @@
       <c r="A327" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327" s="4">
         <v>2222222222</v>
       </c>
       <c r="C327" s="2" t="s">
@@ -6497,7 +6503,7 @@
       <c r="A328" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328" s="4">
         <v>22334455</v>
       </c>
       <c r="C328" s="2" t="s">
@@ -6508,7 +6514,7 @@
       <c r="A329" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329" s="4">
         <v>22446688</v>
       </c>
       <c r="C329" s="2" t="s">
@@ -6519,7 +6525,7 @@
       <c r="A330" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330" s="4">
         <v>23011984</v>
       </c>
       <c r="C330" s="2" t="s">
@@ -6530,7 +6536,7 @@
       <c r="A331" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331" s="4">
         <v>23031990</v>
       </c>
       <c r="C331" s="2" t="s">
@@ -6541,7 +6547,7 @@
       <c r="A332" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332" s="4">
         <v>23031996</v>
       </c>
       <c r="C332" s="2" t="s">
@@ -6552,7 +6558,7 @@
       <c r="A333" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="4">
         <v>23232323</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -6563,7 +6569,7 @@
       <c r="A334" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334" s="4">
         <v>23456789</v>
       </c>
       <c r="C334" s="2" t="s">
@@ -6574,7 +6580,7 @@
       <c r="A335" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="4">
         <v>23989122</v>
       </c>
       <c r="C335" s="2" t="s">
@@ -6585,7 +6591,7 @@
       <c r="A336" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="4">
         <v>24021991</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -6596,7 +6602,7 @@
       <c r="A337" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337" s="4">
         <v>24081991</v>
       </c>
       <c r="C337" s="2" t="s">
@@ -6607,7 +6613,7 @@
       <c r="A338" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338" s="4">
         <v>24091991</v>
       </c>
       <c r="C338" s="2" t="s">
@@ -6618,7 +6624,7 @@
       <c r="A339" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339" s="4">
         <v>24101989</v>
       </c>
       <c r="C339" s="2" t="s">
@@ -6629,7 +6635,7 @@
       <c r="A340" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C340" s="2" t="s">
@@ -6640,7 +6646,7 @@
       <c r="A341" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C341" s="2" t="s">
@@ -6651,7 +6657,7 @@
       <c r="A342" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342" s="4">
         <v>25091991</v>
       </c>
       <c r="C342" s="2" t="s">
@@ -6662,7 +6668,7 @@
       <c r="A343" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343" s="4">
         <v>25121987</v>
       </c>
       <c r="C343" s="2" t="s">
@@ -6673,7 +6679,7 @@
       <c r="A344" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344" s="4">
         <v>25252525</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -6684,7 +6690,7 @@
       <c r="A345" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345" s="4">
         <v>25800852</v>
       </c>
       <c r="C345" s="2" t="s">
@@ -6695,7 +6701,7 @@
       <c r="A346" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346" s="4">
         <v>25802580</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -6706,7 +6712,7 @@
       <c r="A347" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347" s="4">
         <v>26041986</v>
       </c>
       <c r="C347" s="2" t="s">
@@ -6717,7 +6723,7 @@
       <c r="A348" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -6728,7 +6734,7 @@
       <c r="A349" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349" s="4">
         <v>26121984</v>
       </c>
       <c r="C349" s="2" t="s">
@@ -6739,7 +6745,7 @@
       <c r="A350" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350" s="4">
         <v>28042005</v>
       </c>
       <c r="C350" s="2" t="s">
@@ -6750,7 +6756,7 @@
       <c r="A351" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351" s="4">
         <v>29031986</v>
       </c>
       <c r="C351" s="2" t="s">
@@ -6761,7 +6767,7 @@
       <c r="A352" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352" s="4">
         <v>29051989</v>
       </c>
       <c r="C352" s="2" t="s">
@@ -6772,7 +6778,7 @@
       <c r="A353" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C353" s="2" t="s">
@@ -6783,7 +6789,7 @@
       <c r="A354" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C354" s="2" t="s">
@@ -6794,7 +6800,7 @@
       <c r="A355" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B355" s="4">
         <v>300319908</v>
       </c>
       <c r="C355" s="2" t="s">
@@ -6805,7 +6811,7 @@
       <c r="A356" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B356" s="4">
         <v>30031992</v>
       </c>
       <c r="C356" s="2" t="s">
@@ -6816,7 +6822,7 @@
       <c r="A357" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357" s="4">
         <v>30031995</v>
       </c>
       <c r="C357" s="2" t="s">
@@ -6827,7 +6833,7 @@
       <c r="A358" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B358" s="2">
+      <c r="B358" s="4">
         <v>31051989</v>
       </c>
       <c r="C358" s="2" t="s">
@@ -6838,7 +6844,7 @@
       <c r="A359" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B359" s="2">
+      <c r="B359" s="4">
         <v>31051990</v>
       </c>
       <c r="C359" s="2" t="s">
@@ -6849,7 +6855,7 @@
       <c r="A360" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B360" s="2">
+      <c r="B360" s="4">
         <v>31415926</v>
       </c>
       <c r="C360" s="2" t="s">
@@ -6860,7 +6866,7 @@
       <c r="A361" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361" s="4">
         <v>3160023390</v>
       </c>
       <c r="C361" s="2" t="s">
@@ -6871,7 +6877,7 @@
       <c r="A362" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362" s="4">
         <v>321321321</v>
       </c>
       <c r="C362" s="2" t="s">
@@ -6882,7 +6888,7 @@
       <c r="A363" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B363" s="2">
+      <c r="B363" s="4">
         <v>321654987</v>
       </c>
       <c r="C363" s="2" t="s">
@@ -6893,7 +6899,7 @@
       <c r="A364" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B364" s="2">
+      <c r="B364" s="4">
         <v>3216732167</v>
       </c>
       <c r="C364" s="2" t="s">
@@ -6904,7 +6910,7 @@
       <c r="A365" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B365" s="2">
+      <c r="B365" s="4">
         <v>33333333</v>
       </c>
       <c r="C365" s="2" t="s">
@@ -6915,7 +6921,7 @@
       <c r="A366" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B366" s="2">
+      <c r="B366" s="4">
         <v>333333333</v>
       </c>
       <c r="C366" s="2" t="s">
@@ -6926,7 +6932,7 @@
       <c r="A367" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B367" s="2">
+      <c r="B367" s="4">
         <v>3333333333</v>
       </c>
       <c r="C367" s="2" t="s">
@@ -6937,7 +6943,7 @@
       <c r="A368" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B368" s="2">
+      <c r="B368" s="4">
         <v>333555777</v>
       </c>
       <c r="C368" s="2" t="s">
@@ -6948,7 +6954,7 @@
       <c r="A369" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B369" s="2">
+      <c r="B369" s="4">
         <v>333666999</v>
       </c>
       <c r="C369" s="2" t="s">
@@ -6959,7 +6965,7 @@
       <c r="A370" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B370" s="2">
+      <c r="B370" s="4">
         <v>369258147</v>
       </c>
       <c r="C370" s="2" t="s">
@@ -6970,7 +6976,7 @@
       <c r="A371" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B371" s="2">
+      <c r="B371" s="4">
         <v>369852147</v>
       </c>
       <c r="C371" s="2" t="s">
@@ -6981,7 +6987,7 @@
       <c r="A372" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B372" s="2">
+      <c r="B372" s="4">
         <v>37109927</v>
       </c>
       <c r="C372" s="2" t="s">
@@ -6992,7 +6998,7 @@
       <c r="A373" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B373" s="2">
+      <c r="B373" s="4">
         <v>38962138</v>
       </c>
       <c r="C373" s="2" t="s">
@@ -7003,7 +7009,7 @@
       <c r="A374" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C374" s="2" t="s">
@@ -7014,7 +7020,7 @@
       <c r="A375" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B375" s="2">
+      <c r="B375" s="4">
         <v>43046721</v>
       </c>
       <c r="C375" s="2" t="s">
@@ -7025,7 +7031,7 @@
       <c r="A376" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B376" s="2">
+      <c r="B376" s="4">
         <v>44444444</v>
       </c>
       <c r="C376" s="2" t="s">
@@ -7036,7 +7042,7 @@
       <c r="A377" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B377" s="2">
+      <c r="B377" s="4">
         <v>45454545</v>
       </c>
       <c r="C377" s="2" t="s">
@@ -7047,7 +7053,7 @@
       <c r="A378" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B378" s="2">
+      <c r="B378" s="4">
         <v>456456456</v>
       </c>
       <c r="C378" s="2" t="s">
@@ -7058,7 +7064,7 @@
       <c r="A379" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B379" s="2">
+      <c r="B379" s="4">
         <v>4815162342</v>
       </c>
       <c r="C379" s="2" t="s">
@@ -7069,7 +7075,7 @@
       <c r="A380" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B380" s="2">
+      <c r="B380" s="4">
         <v>49538865</v>
       </c>
       <c r="C380" s="2" t="s">
@@ -7080,7 +7086,7 @@
       <c r="A381" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B381" s="2">
+      <c r="B381" s="4">
         <v>55555555</v>
       </c>
       <c r="C381" s="2" t="s">
@@ -7091,7 +7097,7 @@
       <c r="A382" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382" s="4">
         <v>555555555</v>
       </c>
       <c r="C382" s="2" t="s">
@@ -7102,7 +7108,7 @@
       <c r="A383" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B383" s="2">
+      <c r="B383" s="4">
         <v>5555555555</v>
       </c>
       <c r="C383" s="2" t="s">
@@ -7113,7 +7119,7 @@
       <c r="A384" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C384" s="2" t="s">
@@ -7124,7 +7130,7 @@
       <c r="A385" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C385" s="2" t="s">
@@ -7135,7 +7141,7 @@
       <c r="A386" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B386" s="2">
+      <c r="B386" s="4">
         <v>66613666</v>
       </c>
       <c r="C386" s="2" t="s">
@@ -7146,7 +7152,7 @@
       <c r="A387" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B387" s="2">
+      <c r="B387" s="4">
         <v>66666666</v>
       </c>
       <c r="C387" s="2" t="s">
@@ -7157,7 +7163,7 @@
       <c r="A388" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B388" s="4">
         <v>6666666666</v>
       </c>
       <c r="C388" s="2" t="s">
@@ -7168,7 +7174,7 @@
       <c r="A389" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B389" s="2">
+      <c r="B389" s="4">
         <v>6878518463</v>
       </c>
       <c r="C389" s="2" t="s">
@@ -7179,7 +7185,7 @@
       <c r="A390" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C390" s="2" t="s">
@@ -7190,7 +7196,7 @@
       <c r="A391" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B391" s="2">
+      <c r="B391" s="4">
         <v>71636900</v>
       </c>
       <c r="C391" s="2" t="s">
@@ -7201,7 +7207,7 @@
       <c r="A392" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B392" s="2">
+      <c r="B392" s="4">
         <v>7254972549</v>
       </c>
       <c r="C392" s="2" t="s">
@@ -7212,7 +7218,7 @@
       <c r="A393" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393" s="4">
         <v>73501505</v>
       </c>
       <c r="C393" s="2" t="s">
@@ -7223,7 +7229,7 @@
       <c r="A394" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B394" s="2">
+      <c r="B394" s="4">
         <v>741258963</v>
       </c>
       <c r="C394" s="2" t="s">
@@ -7234,7 +7240,7 @@
       <c r="A395" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B395" s="2">
+      <c r="B395" s="4">
         <v>741852963</v>
       </c>
       <c r="C395" s="2" t="s">
@@ -7245,7 +7251,7 @@
       <c r="A396" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B396" s="2">
+      <c r="B396" s="4">
         <v>77777777</v>
       </c>
       <c r="C396" s="2" t="s">
@@ -7256,7 +7262,7 @@
       <c r="A397" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B397" s="2">
+      <c r="B397" s="4">
         <v>777777777</v>
       </c>
       <c r="C397" s="2" t="s">
@@ -7267,7 +7273,7 @@
       <c r="A398" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B398" s="2">
+      <c r="B398" s="4">
         <v>7777777777</v>
       </c>
       <c r="C398" s="2" t="s">
@@ -7278,7 +7284,7 @@
       <c r="A399" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C399" s="2" t="s">
@@ -7289,7 +7295,7 @@
       <c r="A400" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B400" s="2">
+      <c r="B400" s="4">
         <v>77778888</v>
       </c>
       <c r="C400" s="2" t="s">
@@ -7300,7 +7306,7 @@
       <c r="A401" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B401" s="2">
+      <c r="B401" s="4">
         <v>777888999</v>
       </c>
       <c r="C401" s="2" t="s">
@@ -7311,7 +7317,7 @@
       <c r="A402" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B402" s="2">
+      <c r="B402" s="4">
         <v>78787878</v>
       </c>
       <c r="C402" s="2" t="s">
@@ -7322,7 +7328,7 @@
       <c r="A403" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B403" s="2">
+      <c r="B403" s="4">
         <v>789123456</v>
       </c>
       <c r="C403" s="2" t="s">
@@ -7333,7 +7339,7 @@
       <c r="A404" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B404" s="2">
+      <c r="B404" s="4">
         <v>789456123</v>
       </c>
       <c r="C404" s="2" t="s">
@@ -7344,7 +7350,7 @@
       <c r="A405" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B405" s="2">
+      <c r="B405" s="4">
         <v>7894561230</v>
       </c>
       <c r="C405" s="2" t="s">
@@ -7355,7 +7361,7 @@
       <c r="A406" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B406" s="2">
+      <c r="B406" s="4">
         <v>78963214</v>
       </c>
       <c r="C406" s="2" t="s">
@@ -7366,7 +7372,7 @@
       <c r="A407" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B407" s="2">
+      <c r="B407" s="4">
         <v>789632145</v>
       </c>
       <c r="C407" s="2" t="s">
@@ -7377,7 +7383,7 @@
       <c r="A408" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B408" s="2">
+      <c r="B408" s="4">
         <v>789654123</v>
       </c>
       <c r="C408" s="2" t="s">
@@ -7388,7 +7394,7 @@
       <c r="A409" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B409" s="2">
+      <c r="B409" s="4">
         <v>789789789</v>
       </c>
       <c r="C409" s="2" t="s">
@@ -7399,7 +7405,7 @@
       <c r="A410" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B410" s="2">
+      <c r="B410" s="4">
         <v>79138462</v>
       </c>
       <c r="C410" s="2" t="s">
@@ -7410,7 +7416,7 @@
       <c r="A411" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B411" s="2">
+      <c r="B411" s="4">
         <v>80632269449</v>
       </c>
       <c r="C411" s="2" t="s">
@@ -7421,7 +7427,7 @@
       <c r="A412" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B412" s="2">
+      <c r="B412" s="4">
         <v>806367171544</v>
       </c>
       <c r="C412" s="2" t="s">
@@ -7432,7 +7438,7 @@
       <c r="A413" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C413" s="2" t="s">
@@ -7443,7 +7449,7 @@
       <c r="A414" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B414" s="2">
+      <c r="B414" s="4">
         <v>868987321</v>
       </c>
       <c r="C414" s="2" t="s">
@@ -7454,7 +7460,7 @@
       <c r="A415" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B415" s="2">
+      <c r="B415" s="4">
         <v>87654321</v>
       </c>
       <c r="C415" s="2" t="s">
@@ -7465,7 +7471,7 @@
       <c r="A416" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B416" s="2">
+      <c r="B416" s="4">
         <v>88888888</v>
       </c>
       <c r="C416" s="2" t="s">
@@ -7476,7 +7482,7 @@
       <c r="A417" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B417" s="2">
+      <c r="B417" s="4">
         <v>8888888888</v>
       </c>
       <c r="C417" s="2" t="s">
@@ -7487,7 +7493,7 @@
       <c r="A418" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B418" s="2">
+      <c r="B418" s="4">
         <v>88908890</v>
       </c>
       <c r="C418" s="2" t="s">
@@ -7498,7 +7504,7 @@
       <c r="A419" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C419" s="2" t="s">
@@ -7509,7 +7515,7 @@
       <c r="A420" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B420" s="2">
+      <c r="B420" s="4">
         <v>91111111</v>
       </c>
       <c r="C420" s="2" t="s">
@@ -7520,7 +7526,7 @@
       <c r="A421" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B421" s="2">
+      <c r="B421" s="4">
         <v>911911911</v>
       </c>
       <c r="C421" s="2" t="s">
@@ -7531,7 +7537,7 @@
       <c r="A422" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B422" s="2">
+      <c r="B422" s="4">
         <v>9234692346</v>
       </c>
       <c r="C422" s="2" t="s">
@@ -7542,7 +7548,7 @@
       <c r="A423" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B423" s="2">
+      <c r="B423" s="4">
         <v>963852741</v>
       </c>
       <c r="C423" s="2" t="s">
@@ -7553,7 +7559,7 @@
       <c r="A424" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B424" s="2">
+      <c r="B424" s="4">
         <v>987456321</v>
       </c>
       <c r="C424" s="2" t="s">
@@ -7564,7 +7570,7 @@
       <c r="A425" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B425" s="2">
+      <c r="B425" s="4">
         <v>98765432</v>
       </c>
       <c r="C425" s="2" t="s">
@@ -7575,7 +7581,7 @@
       <c r="A426" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B426" s="2">
+      <c r="B426" s="4">
         <v>987654321</v>
       </c>
       <c r="C426" s="2" t="s">
@@ -7586,7 +7592,7 @@
       <c r="A427" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B427" s="2">
+      <c r="B427" s="4">
         <v>9876543210</v>
       </c>
       <c r="C427" s="2" t="s">
@@ -7597,7 +7603,7 @@
       <c r="A428" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C428" s="2" t="s">
@@ -7608,7 +7614,7 @@
       <c r="A429" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B429" s="2">
+      <c r="B429" s="4">
         <v>99999999</v>
       </c>
       <c r="C429" s="2" t="s">
@@ -7619,7 +7625,7 @@
       <c r="A430" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B430" s="2">
+      <c r="B430" s="4">
         <v>999999999</v>
       </c>
       <c r="C430" s="2" t="s">
@@ -7630,7 +7636,7 @@
       <c r="A431" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B431" s="2">
+      <c r="B431" s="4">
         <v>9999999998</v>
       </c>
       <c r="C431" s="2" t="s">
@@ -7641,7 +7647,7 @@
       <c r="A432" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B432" s="2">
+      <c r="B432" s="4">
         <v>9999999999</v>
       </c>
       <c r="C432" s="2" t="s">
@@ -7652,7 +7658,7 @@
       <c r="A433" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C433" s="2" t="s">
@@ -7663,7 +7669,7 @@
       <c r="A434" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C434" s="2" t="s">
@@ -7674,7 +7680,7 @@
       <c r="A435" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C435" s="2" t="s">
@@ -7685,7 +7691,7 @@
       <c r="A436" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C436" s="2" t="s">
@@ -7696,7 +7702,7 @@
       <c r="A437" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C437" s="2" t="s">
@@ -7707,7 +7713,7 @@
       <c r="A438" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -7718,7 +7724,7 @@
       <c r="A439" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C439" s="2" t="s">
@@ -7729,7 +7735,7 @@
       <c r="A440" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C440" s="2" t="s">
@@ -7740,7 +7746,7 @@
       <c r="A441" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C441" s="2" t="s">
@@ -7751,7 +7757,7 @@
       <c r="A442" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C442" s="2" t="s">
@@ -7762,7 +7768,7 @@
       <c r="A443" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C443" s="2" t="s">
@@ -7773,7 +7779,7 @@
       <c r="A444" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C444" s="2" t="s">
@@ -7784,7 +7790,7 @@
       <c r="A445" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C445" s="2" t="s">
@@ -7795,7 +7801,7 @@
       <c r="A446" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C446" s="2" t="s">
@@ -7806,7 +7812,7 @@
       <c r="A447" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C447" s="2" t="s">
@@ -7817,7 +7823,7 @@
       <c r="A448" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C448" s="2" t="s">
@@ -7828,7 +7834,7 @@
       <c r="A449" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C449" s="2" t="s">
@@ -7839,7 +7845,7 @@
       <c r="A450" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C450" s="2" t="s">
@@ -7850,7 +7856,7 @@
       <c r="A451" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C451" s="2" t="s">
@@ -7861,7 +7867,7 @@
       <c r="A452" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C452" s="2" t="s">
@@ -7872,7 +7878,7 @@
       <c r="A453" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C453" s="2" t="s">
@@ -7883,7 +7889,7 @@
       <c r="A454" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C454" s="2" t="s">
@@ -7894,7 +7900,7 @@
       <c r="A455" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C455" s="2" t="s">
@@ -7905,7 +7911,7 @@
       <c r="A456" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C456" s="2" t="s">
@@ -7916,7 +7922,7 @@
       <c r="A457" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C457" s="2" t="s">
@@ -7927,7 +7933,7 @@
       <c r="A458" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C458" s="2" t="s">
@@ -7938,7 +7944,7 @@
       <c r="A459" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C459" s="2" t="s">
@@ -7949,7 +7955,7 @@
       <c r="A460" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C460" s="2" t="s">
@@ -7960,7 +7966,7 @@
       <c r="A461" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C461" s="2" t="s">
@@ -7971,7 +7977,7 @@
       <c r="A462" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C462" s="2" t="s">
@@ -7982,7 +7988,7 @@
       <c r="A463" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C463" s="2" t="s">
@@ -7993,7 +7999,7 @@
       <c r="A464" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C464" s="2" t="s">
@@ -8004,7 +8010,7 @@
       <c r="A465" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C465" s="2" t="s">
@@ -8015,7 +8021,7 @@
       <c r="A466" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C466" s="2" t="s">
@@ -8026,7 +8032,7 @@
       <c r="A467" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C467" s="2" t="s">
@@ -8037,7 +8043,7 @@
       <c r="A468" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C468" s="2" t="s">
@@ -8048,7 +8054,7 @@
       <c r="A469" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B469" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C469" s="2" t="s">
@@ -8059,7 +8065,7 @@
       <c r="A470" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C470" s="2" t="s">
@@ -8070,7 +8076,7 @@
       <c r="A471" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C471" s="2" t="s">
@@ -8081,7 +8087,7 @@
       <c r="A472" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C472" s="2" t="s">
@@ -8092,7 +8098,7 @@
       <c r="A473" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B473" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C473" s="2" t="s">
@@ -8103,7 +8109,7 @@
       <c r="A474" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B474" s="2" t="s">
+      <c r="B474" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C474" s="2" t="s">
@@ -8114,7 +8120,7 @@
       <c r="A475" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C475" s="2" t="s">
@@ -8125,7 +8131,7 @@
       <c r="A476" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B476" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C476" s="2" t="s">
@@ -8136,7 +8142,7 @@
       <c r="A477" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C477" s="2" t="s">
@@ -8147,7 +8153,7 @@
       <c r="A478" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B478" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C478" s="2" t="s">
@@ -8158,7 +8164,7 @@
       <c r="A479" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C479" s="2" t="s">
@@ -8169,7 +8175,7 @@
       <c r="A480" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C480" s="2" t="s">
@@ -8180,7 +8186,7 @@
       <c r="A481" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C481" s="2" t="s">
@@ -8191,7 +8197,7 @@
       <c r="A482" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C482" s="2" t="s">
@@ -8202,7 +8208,7 @@
       <c r="A483" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B483" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C483" s="2" t="s">
@@ -8213,7 +8219,7 @@
       <c r="A484" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B484" s="2" t="s">
+      <c r="B484" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C484" s="2" t="s">
@@ -8224,7 +8230,7 @@
       <c r="A485" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="B485" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C485" s="2" t="s">
@@ -8235,7 +8241,7 @@
       <c r="A486" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B486" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C486" s="2" t="s">
@@ -8246,7 +8252,7 @@
       <c r="A487" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B487" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C487" s="2" t="s">
@@ -8257,7 +8263,7 @@
       <c r="A488" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B488" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C488" s="2" t="s">
@@ -8268,7 +8274,7 @@
       <c r="A489" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B489" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C489" s="2" t="s">
@@ -8279,7 +8285,7 @@
       <c r="A490" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="B490" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C490" s="2" t="s">
@@ -8290,7 +8296,7 @@
       <c r="A491" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B491" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -8301,7 +8307,7 @@
       <c r="A492" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B492" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C492" s="2" t="s">
@@ -8312,7 +8318,7 @@
       <c r="A493" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B493" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C493" s="2" t="s">
@@ -8323,7 +8329,7 @@
       <c r="A494" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B494" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C494" s="2" t="s">
@@ -8334,7 +8340,7 @@
       <c r="A495" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C495" s="2" t="s">
@@ -8345,7 +8351,7 @@
       <c r="A496" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B496" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C496" s="2" t="s">
@@ -8356,7 +8362,7 @@
       <c r="A497" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B497" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C497" s="2" t="s">
@@ -8367,7 +8373,7 @@
       <c r="A498" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B498" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C498" s="2" t="s">
@@ -8378,7 +8384,7 @@
       <c r="A499" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B499" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C499" s="2" t="s">
@@ -8389,7 +8395,7 @@
       <c r="A500" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B500" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C500" s="2" t="s">
@@ -8400,7 +8406,7 @@
       <c r="A501" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B501" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C501" s="2" t="s">
@@ -8411,7 +8417,7 @@
       <c r="A502" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B502" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C502" s="2" t="s">
@@ -8422,7 +8428,7 @@
       <c r="A503" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B503" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C503" s="2" t="s">
@@ -8433,7 +8439,7 @@
       <c r="A504" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B504" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C504" s="2" t="s">
@@ -8444,7 +8450,7 @@
       <c r="A505" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B505" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -8455,7 +8461,7 @@
       <c r="A506" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C506" s="2" t="s">
@@ -8466,7 +8472,7 @@
       <c r="A507" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="B507" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C507" s="2" t="s">
@@ -8477,7 +8483,7 @@
       <c r="A508" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="B508" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C508" s="2" t="s">
@@ -8488,7 +8494,7 @@
       <c r="A509" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B509" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C509" s="2" t="s">
@@ -8499,7 +8505,7 @@
       <c r="A510" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B510" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C510" s="2" t="s">
@@ -8510,7 +8516,7 @@
       <c r="A511" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B511" s="2" t="s">
+      <c r="B511" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C511" s="2" t="s">
@@ -8521,7 +8527,7 @@
       <c r="A512" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B512" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C512" s="2" t="s">
@@ -8532,7 +8538,7 @@
       <c r="A513" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B513" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C513" s="2" t="s">
@@ -8543,7 +8549,7 @@
       <c r="A514" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B514" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C514" s="2" t="s">
@@ -8554,7 +8560,7 @@
       <c r="A515" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B515" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C515" s="2" t="s">
@@ -8565,7 +8571,7 @@
       <c r="A516" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B516" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C516" s="2" t="s">
@@ -8576,7 +8582,7 @@
       <c r="A517" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B517" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C517" s="2" t="s">
@@ -8587,7 +8593,7 @@
       <c r="A518" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B518" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C518" s="2" t="s">
@@ -8598,7 +8604,7 @@
       <c r="A519" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B519" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C519" s="2" t="s">
@@ -8609,7 +8615,7 @@
       <c r="A520" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B520" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C520" s="2" t="s">
@@ -8620,7 +8626,7 @@
       <c r="A521" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B521" s="4" t="s">
         <v>187</v>
       </c>
       <c r="C521" s="2" t="s">
@@ -8631,7 +8637,7 @@
       <c r="A522" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B522" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C522" s="2" t="s">
@@ -8642,7 +8648,7 @@
       <c r="A523" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B523" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C523" s="2" t="s">
@@ -8653,7 +8659,7 @@
       <c r="A524" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B524" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C524" s="2" t="s">
@@ -8664,7 +8670,7 @@
       <c r="A525" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B525" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C525" s="2" t="s">
@@ -8675,7 +8681,7 @@
       <c r="A526" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B526" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C526" s="2" t="s">
@@ -8686,7 +8692,7 @@
       <c r="A527" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B527" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C527" s="2" t="s">
@@ -8697,7 +8703,7 @@
       <c r="A528" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="B528" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C528" s="2" t="s">
@@ -8708,7 +8714,7 @@
       <c r="A529" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="B529" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C529" s="2" t="s">
@@ -8719,7 +8725,7 @@
       <c r="A530" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B530" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C530" s="2" t="s">
@@ -8730,7 +8736,7 @@
       <c r="A531" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C531" s="2" t="s">
@@ -8741,7 +8747,7 @@
       <c r="A532" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C532" s="2" t="s">
@@ -8752,7 +8758,7 @@
       <c r="A533" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B533" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C533" s="2" t="s">
@@ -8763,7 +8769,7 @@
       <c r="A534" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B534" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C534" s="2" t="s">
@@ -8774,7 +8780,7 @@
       <c r="A535" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B535" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C535" s="2" t="s">
@@ -8785,7 +8791,7 @@
       <c r="A536" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C536" s="2" t="s">
@@ -8796,7 +8802,7 @@
       <c r="A537" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C537" s="2" t="s">
@@ -8807,7 +8813,7 @@
       <c r="A538" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B538" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C538" s="2" t="s">
@@ -8818,7 +8824,7 @@
       <c r="A539" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="B539" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C539" s="2" t="s">
@@ -8829,7 +8835,7 @@
       <c r="A540" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -8840,7 +8846,7 @@
       <c r="A541" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C541" s="2" t="s">
@@ -8851,7 +8857,7 @@
       <c r="A542" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B542" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C542" s="2" t="s">
@@ -8862,7 +8868,7 @@
       <c r="A543" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B543" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C543" s="2" t="s">
@@ -8873,7 +8879,7 @@
       <c r="A544" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B544" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C544" s="2" t="s">
@@ -8884,7 +8890,7 @@
       <c r="A545" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B545" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C545" s="2" t="s">
@@ -8895,7 +8901,7 @@
       <c r="A546" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B546" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C546" s="2" t="s">
@@ -8906,7 +8912,7 @@
       <c r="A547" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B547" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C547" s="2" t="s">
@@ -8917,7 +8923,7 @@
       <c r="A548" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B548" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C548" s="2" t="s">
@@ -8928,7 +8934,7 @@
       <c r="A549" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B549" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C549" s="2" t="s">
@@ -8939,7 +8945,7 @@
       <c r="A550" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="B550" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C550" s="2" t="s">
@@ -8950,7 +8956,7 @@
       <c r="A551" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B551" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C551" s="2" t="s">
@@ -8961,7 +8967,7 @@
       <c r="A552" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B552" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C552" s="2" t="s">
@@ -8972,7 +8978,7 @@
       <c r="A553" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="B553" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C553" s="2" t="s">
@@ -8983,7 +8989,7 @@
       <c r="A554" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B554" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C554" s="2" t="s">
@@ -8994,7 +9000,7 @@
       <c r="A555" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B555" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C555" s="2" t="s">
@@ -9005,7 +9011,7 @@
       <c r="A556" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B556" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C556" s="2" t="s">
@@ -9016,7 +9022,7 @@
       <c r="A557" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B557" s="2" t="s">
+      <c r="B557" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C557" s="2" t="s">
@@ -9027,7 +9033,7 @@
       <c r="A558" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B558" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C558" s="2" t="s">
@@ -9038,7 +9044,7 @@
       <c r="A559" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="B559" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C559" s="2" t="s">
@@ -9049,7 +9055,7 @@
       <c r="A560" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B560" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C560" s="2" t="s">
@@ -9060,7 +9066,7 @@
       <c r="A561" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B561" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C561" s="2" t="s">
@@ -9071,7 +9077,7 @@
       <c r="A562" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="B562" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C562" s="2" t="s">
@@ -9082,7 +9088,7 @@
       <c r="A563" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B563" s="2" t="s">
+      <c r="B563" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C563" s="2" t="s">
@@ -9093,7 +9099,7 @@
       <c r="A564" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B564" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C564" s="2" t="s">
@@ -9104,7 +9110,7 @@
       <c r="A565" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="B565" s="4" t="s">
         <v>231</v>
       </c>
       <c r="C565" s="2" t="s">
@@ -9115,7 +9121,7 @@
       <c r="A566" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="B566" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C566" s="2" t="s">
@@ -9126,7 +9132,7 @@
       <c r="A567" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="B567" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C567" s="2" t="s">
@@ -9137,7 +9143,7 @@
       <c r="A568" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B568" s="2" t="s">
+      <c r="B568" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C568" s="2" t="s">
@@ -9148,7 +9154,7 @@
       <c r="A569" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B569" s="2" t="s">
+      <c r="B569" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C569" s="2" t="s">
@@ -9159,7 +9165,7 @@
       <c r="A570" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B570" s="2" t="s">
+      <c r="B570" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C570" s="2" t="s">
@@ -9170,7 +9176,7 @@
       <c r="A571" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="B571" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C571" s="2" t="s">
@@ -9181,7 +9187,7 @@
       <c r="A572" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="B572" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C572" s="2" t="s">
@@ -9192,7 +9198,7 @@
       <c r="A573" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B573" s="2" t="s">
+      <c r="B573" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C573" s="2" t="s">
@@ -9203,7 +9209,7 @@
       <c r="A574" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="B574" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C574" s="2" t="s">
@@ -9214,7 +9220,7 @@
       <c r="A575" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B575" s="2" t="s">
+      <c r="B575" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C575" s="2" t="s">
@@ -9225,7 +9231,7 @@
       <c r="A576" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B576" s="2" t="s">
+      <c r="B576" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C576" s="2" t="s">
@@ -9236,7 +9242,7 @@
       <c r="A577" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B577" s="2" t="s">
+      <c r="B577" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C577" s="2" t="s">
@@ -9247,7 +9253,7 @@
       <c r="A578" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B578" s="2" t="s">
+      <c r="B578" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C578" s="2" t="s">
@@ -9258,7 +9264,7 @@
       <c r="A579" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B579" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C579" s="2" t="s">
@@ -9269,7 +9275,7 @@
       <c r="A580" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B580" s="2" t="s">
+      <c r="B580" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C580" s="2" t="s">
@@ -9280,7 +9286,7 @@
       <c r="A581" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B581" s="2" t="s">
+      <c r="B581" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C581" s="2" t="s">
@@ -9291,7 +9297,7 @@
       <c r="A582" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B582" s="2" t="s">
+      <c r="B582" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C582" s="2" t="s">
@@ -9302,7 +9308,7 @@
       <c r="A583" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C583" s="2" t="s">
@@ -9313,7 +9319,7 @@
       <c r="A584" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B584" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C584" s="2" t="s">
@@ -9324,7 +9330,7 @@
       <c r="A585" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B585" s="2" t="s">
+      <c r="B585" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C585" s="2" t="s">
@@ -9335,7 +9341,7 @@
       <c r="A586" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B586" s="2" t="s">
+      <c r="B586" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C586" s="2" t="s">
@@ -9346,7 +9352,7 @@
       <c r="A587" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B587" s="2" t="s">
+      <c r="B587" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C587" s="2" t="s">
@@ -9357,7 +9363,7 @@
       <c r="A588" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B588" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C588" s="2" t="s">
@@ -9368,7 +9374,7 @@
       <c r="A589" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B589" s="2" t="s">
+      <c r="B589" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C589" s="2" t="s">
@@ -9379,7 +9385,7 @@
       <c r="A590" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B590" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C590" s="2" t="s">
@@ -9390,7 +9396,7 @@
       <c r="A591" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B591" s="2" t="s">
+      <c r="B591" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C591" s="2" t="s">
@@ -9401,7 +9407,7 @@
       <c r="A592" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B592" s="2" t="s">
+      <c r="B592" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C592" s="2" t="s">
@@ -9412,7 +9418,7 @@
       <c r="A593" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B593" s="2" t="s">
+      <c r="B593" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C593" s="2" t="s">
@@ -9423,7 +9429,7 @@
       <c r="A594" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B594" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C594" s="2" t="s">
@@ -9434,7 +9440,7 @@
       <c r="A595" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B595" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C595" s="2" t="s">
@@ -9445,7 +9451,7 @@
       <c r="A596" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B596" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C596" s="2" t="s">
@@ -9456,7 +9462,7 @@
       <c r="A597" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B597" s="2" t="s">
+      <c r="B597" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C597" s="2" t="s">
@@ -9467,7 +9473,7 @@
       <c r="A598" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="B598" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C598" s="2" t="s">
@@ -9478,7 +9484,7 @@
       <c r="A599" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B599" s="2" t="s">
+      <c r="B599" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C599" s="2" t="s">
@@ -9489,7 +9495,7 @@
       <c r="A600" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B600" s="2" t="s">
+      <c r="B600" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C600" s="2" t="s">
@@ -9500,7 +9506,7 @@
       <c r="A601" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B601" s="2" t="s">
+      <c r="B601" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C601" s="2" t="s">
@@ -9511,7 +9517,7 @@
       <c r="A602" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B602" s="2" t="s">
+      <c r="B602" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C602" s="2" t="s">
@@ -9522,7 +9528,7 @@
       <c r="A603" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B603" s="2" t="s">
+      <c r="B603" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C603" s="2" t="s">
@@ -9533,7 +9539,7 @@
       <c r="A604" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B604" s="2" t="s">
+      <c r="B604" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C604" s="2" t="s">
@@ -9544,7 +9550,7 @@
       <c r="A605" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B605" s="2" t="s">
+      <c r="B605" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C605" s="2" t="s">
@@ -9555,7 +9561,7 @@
       <c r="A606" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B606" s="2" t="s">
+      <c r="B606" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C606" s="2" t="s">
@@ -9566,7 +9572,7 @@
       <c r="A607" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B607" s="2" t="s">
+      <c r="B607" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C607" s="2" t="s">
@@ -9577,7 +9583,7 @@
       <c r="A608" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B608" s="2" t="s">
+      <c r="B608" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C608" s="2" t="s">
@@ -9588,7 +9594,7 @@
       <c r="A609" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B609" s="2" t="s">
+      <c r="B609" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C609" s="2" t="s">
@@ -9599,7 +9605,7 @@
       <c r="A610" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B610" s="2" t="s">
+      <c r="B610" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C610" s="2" t="s">
@@ -9610,7 +9616,7 @@
       <c r="A611" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B611" s="2" t="s">
+      <c r="B611" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C611" s="2" t="s">
@@ -9621,7 +9627,7 @@
       <c r="A612" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B612" s="2" t="s">
+      <c r="B612" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C612" s="2" t="s">
@@ -9632,7 +9638,7 @@
       <c r="A613" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B613" s="2" t="s">
+      <c r="B613" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C613" s="2" t="s">
@@ -9643,7 +9649,7 @@
       <c r="A614" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B614" s="2" t="s">
+      <c r="B614" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C614" s="2" t="s">
@@ -9654,7 +9660,7 @@
       <c r="A615" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B615" s="2" t="s">
+      <c r="B615" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C615" s="2" t="s">
@@ -9665,7 +9671,7 @@
       <c r="A616" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B616" s="2" t="s">
+      <c r="B616" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C616" s="2" t="s">
@@ -9676,7 +9682,7 @@
       <c r="A617" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B617" s="2" t="s">
+      <c r="B617" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C617" s="2" t="s">
@@ -9687,7 +9693,7 @@
       <c r="A618" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B618" s="2" t="s">
+      <c r="B618" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C618" s="2" t="s">
@@ -9698,7 +9704,7 @@
       <c r="A619" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B619" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C619" s="2" t="s">
@@ -9709,7 +9715,7 @@
       <c r="A620" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B620" s="2" t="s">
+      <c r="B620" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C620" s="2" t="s">
@@ -9720,7 +9726,7 @@
       <c r="A621" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B621" s="2" t="s">
+      <c r="B621" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C621" s="2" t="s">
@@ -9731,7 +9737,7 @@
       <c r="A622" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B622" s="2" t="s">
+      <c r="B622" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C622" s="2" t="s">
@@ -9742,7 +9748,7 @@
       <c r="A623" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B623" s="2" t="s">
+      <c r="B623" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C623" s="2" t="s">
@@ -9753,7 +9759,7 @@
       <c r="A624" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="B624" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C624" s="2" t="s">
@@ -9764,7 +9770,7 @@
       <c r="A625" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B625" s="2" t="s">
+      <c r="B625" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C625" s="2" t="s">
@@ -9775,7 +9781,7 @@
       <c r="A626" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B626" s="2" t="s">
+      <c r="B626" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C626" s="2" t="s">
@@ -9786,7 +9792,7 @@
       <c r="A627" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B627" s="2" t="s">
+      <c r="B627" s="4" t="s">
         <v>293</v>
       </c>
       <c r="C627" s="2" t="s">
@@ -9797,7 +9803,7 @@
       <c r="A628" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B628" s="2" t="s">
+      <c r="B628" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C628" s="2" t="s">
@@ -9808,7 +9814,7 @@
       <c r="A629" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B629" s="2" t="s">
+      <c r="B629" s="4" t="s">
         <v>295</v>
       </c>
       <c r="C629" s="2" t="s">
@@ -9819,7 +9825,7 @@
       <c r="A630" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B630" s="2" t="s">
+      <c r="B630" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C630" s="2" t="s">
@@ -9830,7 +9836,7 @@
       <c r="A631" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B631" s="2" t="s">
+      <c r="B631" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C631" s="2" t="s">
@@ -9841,7 +9847,7 @@
       <c r="A632" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B632" s="2" t="s">
+      <c r="B632" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C632" s="2" t="s">
@@ -9852,7 +9858,7 @@
       <c r="A633" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B633" s="2" t="s">
+      <c r="B633" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C633" s="2" t="s">
@@ -9863,7 +9869,7 @@
       <c r="A634" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B634" s="2" t="s">
+      <c r="B634" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C634" s="2" t="s">
@@ -9874,7 +9880,7 @@
       <c r="A635" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B635" s="2" t="s">
+      <c r="B635" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C635" s="2" t="s">
@@ -9885,7 +9891,7 @@
       <c r="A636" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B636" s="2" t="s">
+      <c r="B636" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C636" s="2" t="s">
@@ -9896,7 +9902,7 @@
       <c r="A637" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B637" s="2" t="s">
+      <c r="B637" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C637" s="2" t="s">
@@ -9907,7 +9913,7 @@
       <c r="A638" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B638" s="2" t="s">
+      <c r="B638" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C638" s="2" t="s">
@@ -9918,7 +9924,7 @@
       <c r="A639" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B639" s="2" t="s">
+      <c r="B639" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C639" s="2" t="s">
@@ -9929,7 +9935,7 @@
       <c r="A640" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B640" s="2" t="s">
+      <c r="B640" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C640" s="2" t="s">
@@ -9940,7 +9946,7 @@
       <c r="A641" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B641" s="2" t="s">
+      <c r="B641" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C641" s="2" t="s">
@@ -9951,7 +9957,7 @@
       <c r="A642" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B642" s="2" t="s">
+      <c r="B642" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C642" s="2" t="s">
@@ -9962,7 +9968,7 @@
       <c r="A643" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B643" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C643" s="2" t="s">
@@ -9973,7 +9979,7 @@
       <c r="A644" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B644" s="2" t="s">
+      <c r="B644" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C644" s="2" t="s">
@@ -9984,7 +9990,7 @@
       <c r="A645" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B645" s="2" t="s">
+      <c r="B645" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C645" s="2" t="s">
@@ -9995,7 +10001,7 @@
       <c r="A646" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B646" s="2" t="s">
+      <c r="B646" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C646" s="2" t="s">
@@ -10006,7 +10012,7 @@
       <c r="A647" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B647" s="2" t="s">
+      <c r="B647" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C647" s="2" t="s">
@@ -10017,7 +10023,7 @@
       <c r="A648" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B648" s="2" t="s">
+      <c r="B648" s="4" t="s">
         <v>314</v>
       </c>
       <c r="C648" s="2" t="s">
@@ -10028,7 +10034,7 @@
       <c r="A649" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B649" s="2" t="s">
+      <c r="B649" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C649" s="2" t="s">
@@ -10039,7 +10045,7 @@
       <c r="A650" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B650" s="2" t="s">
+      <c r="B650" s="4" t="s">
         <v>316</v>
       </c>
       <c r="C650" s="2" t="s">
@@ -10050,7 +10056,7 @@
       <c r="A651" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B651" s="2" t="s">
+      <c r="B651" s="4" t="s">
         <v>317</v>
       </c>
       <c r="C651" s="2" t="s">
@@ -10061,7 +10067,7 @@
       <c r="A652" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B652" s="2" t="s">
+      <c r="B652" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C652" s="2" t="s">
@@ -10072,7 +10078,7 @@
       <c r="A653" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B653" s="2" t="s">
+      <c r="B653" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C653" s="2" t="s">
@@ -10083,7 +10089,7 @@
       <c r="A654" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B654" s="2" t="s">
+      <c r="B654" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C654" s="2" t="s">
@@ -10094,7 +10100,7 @@
       <c r="A655" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B655" s="2" t="s">
+      <c r="B655" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C655" s="2" t="s">
@@ -10105,7 +10111,7 @@
       <c r="A656" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B656" s="2" t="s">
+      <c r="B656" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C656" s="2" t="s">
@@ -10116,7 +10122,7 @@
       <c r="A657" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B657" s="2" t="s">
+      <c r="B657" s="4" t="s">
         <v>323</v>
       </c>
       <c r="C657" s="2" t="s">
@@ -10127,7 +10133,7 @@
       <c r="A658" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B658" s="2" t="s">
+      <c r="B658" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C658" s="2" t="s">
@@ -10138,7 +10144,7 @@
       <c r="A659" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B659" s="2" t="s">
+      <c r="B659" s="4" t="s">
         <v>325</v>
       </c>
       <c r="C659" s="2" t="s">
@@ -10149,7 +10155,7 @@
       <c r="A660" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B660" s="2" t="s">
+      <c r="B660" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C660" s="2" t="s">
@@ -10160,7 +10166,7 @@
       <c r="A661" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B661" s="2" t="s">
+      <c r="B661" s="4" t="s">
         <v>327</v>
       </c>
       <c r="C661" s="2" t="s">
@@ -10171,7 +10177,7 @@
       <c r="A662" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B662" s="2" t="s">
+      <c r="B662" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C662" s="2" t="s">
@@ -10182,7 +10188,7 @@
       <c r="A663" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B663" s="2" t="s">
+      <c r="B663" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C663" s="2" t="s">
@@ -10193,7 +10199,7 @@
       <c r="A664" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B664" s="2" t="s">
+      <c r="B664" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C664" s="2" t="s">
@@ -10204,7 +10210,7 @@
       <c r="A665" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B665" s="2" t="s">
+      <c r="B665" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C665" s="2" t="s">
@@ -10215,7 +10221,7 @@
       <c r="A666" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B666" s="2" t="s">
+      <c r="B666" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C666" s="2" t="s">
@@ -10226,7 +10232,7 @@
       <c r="A667" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B667" s="2" t="s">
+      <c r="B667" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C667" s="2" t="s">
@@ -10237,7 +10243,7 @@
       <c r="A668" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B668" s="2" t="s">
+      <c r="B668" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C668" s="2" t="s">
@@ -10248,7 +10254,7 @@
       <c r="A669" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B669" s="2" t="s">
+      <c r="B669" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C669" s="2" t="s">
@@ -10259,7 +10265,7 @@
       <c r="A670" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B670" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C670" s="2" t="s">
@@ -10270,7 +10276,7 @@
       <c r="A671" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B671" s="2" t="s">
+      <c r="B671" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C671" s="2" t="s">
@@ -10281,7 +10287,7 @@
       <c r="A672" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B672" s="2" t="s">
+      <c r="B672" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C672" s="2" t="s">
@@ -10292,7 +10298,7 @@
       <c r="A673" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B673" s="2" t="s">
+      <c r="B673" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C673" s="2" t="s">
@@ -10303,7 +10309,7 @@
       <c r="A674" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B674" s="2" t="s">
+      <c r="B674" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C674" s="2" t="s">
@@ -10314,7 +10320,7 @@
       <c r="A675" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B675" s="2" t="s">
+      <c r="B675" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C675" s="2" t="s">
@@ -10325,7 +10331,7 @@
       <c r="A676" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="B676" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C676" s="2" t="s">
@@ -10336,7 +10342,7 @@
       <c r="A677" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B677" s="2" t="s">
+      <c r="B677" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C677" s="2" t="s">
@@ -10347,7 +10353,7 @@
       <c r="A678" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B678" s="2" t="s">
+      <c r="B678" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C678" s="2" t="s">
@@ -10358,7 +10364,7 @@
       <c r="A679" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B679" s="2" t="s">
+      <c r="B679" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C679" s="2" t="s">
@@ -10369,7 +10375,7 @@
       <c r="A680" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B680" s="2" t="s">
+      <c r="B680" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C680" s="2" t="s">
@@ -10380,7 +10386,7 @@
       <c r="A681" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="B681" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C681" s="2" t="s">
@@ -10391,7 +10397,7 @@
       <c r="A682" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="B682" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C682" s="2" t="s">
@@ -10402,7 +10408,7 @@
       <c r="A683" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="B683" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C683" s="2" t="s">
@@ -10413,7 +10419,7 @@
       <c r="A684" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B684" s="2" t="s">
+      <c r="B684" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C684" s="2" t="s">
@@ -10424,7 +10430,7 @@
       <c r="A685" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B685" s="2" t="s">
+      <c r="B685" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C685" s="2" t="s">
@@ -10435,7 +10441,7 @@
       <c r="A686" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B686" s="2" t="s">
+      <c r="B686" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C686" s="2" t="s">
@@ -10446,7 +10452,7 @@
       <c r="A687" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B687" s="2" t="s">
+      <c r="B687" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C687" s="2" t="s">
@@ -10457,7 +10463,7 @@
       <c r="A688" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="B688" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C688" s="2" t="s">
@@ -10468,7 +10474,7 @@
       <c r="A689" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B689" s="2" t="s">
+      <c r="B689" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C689" s="2" t="s">
@@ -10479,7 +10485,7 @@
       <c r="A690" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B690" s="2" t="s">
+      <c r="B690" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C690" s="2" t="s">
@@ -10490,7 +10496,7 @@
       <c r="A691" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B691" s="2" t="s">
+      <c r="B691" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C691" s="2" t="s">
@@ -10501,7 +10507,7 @@
       <c r="A692" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B692" s="2" t="s">
+      <c r="B692" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C692" s="2" t="s">
@@ -10512,7 +10518,7 @@
       <c r="A693" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B693" s="2" t="s">
+      <c r="B693" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C693" s="2" t="s">
@@ -10523,7 +10529,7 @@
       <c r="A694" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B694" s="2" t="s">
+      <c r="B694" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C694" s="2" t="s">
@@ -10534,7 +10540,7 @@
       <c r="A695" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B695" s="2" t="s">
+      <c r="B695" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C695" s="2" t="s">
@@ -10545,7 +10551,7 @@
       <c r="A696" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B696" s="2" t="s">
+      <c r="B696" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C696" s="2" t="s">
@@ -10556,7 +10562,7 @@
       <c r="A697" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B697" s="2" t="s">
+      <c r="B697" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C697" s="2" t="s">
@@ -10567,7 +10573,7 @@
       <c r="A698" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B698" s="2" t="s">
+      <c r="B698" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C698" s="2" t="s">
@@ -10578,7 +10584,7 @@
       <c r="A699" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B699" s="4" t="s">
         <v>365</v>
       </c>
       <c r="C699" s="2" t="s">
@@ -10589,7 +10595,7 @@
       <c r="A700" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B700" s="4" t="s">
         <v>366</v>
       </c>
       <c r="C700" s="2" t="s">
@@ -10600,7 +10606,7 @@
       <c r="A701" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B701" s="2" t="s">
+      <c r="B701" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C701" s="2" t="s">
@@ -10611,7 +10617,7 @@
       <c r="A702" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B702" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C702" s="2" t="s">
@@ -10622,7 +10628,7 @@
       <c r="A703" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B703" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C703" s="2" t="s">
@@ -10633,7 +10639,7 @@
       <c r="A704" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="B704" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C704" s="2" t="s">
@@ -10644,7 +10650,7 @@
       <c r="A705" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B705" s="2" t="s">
+      <c r="B705" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C705" s="2" t="s">
@@ -10655,7 +10661,7 @@
       <c r="A706" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B706" s="2" t="s">
+      <c r="B706" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C706" s="2" t="s">
@@ -10666,7 +10672,7 @@
       <c r="A707" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B707" s="2" t="s">
+      <c r="B707" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C707" s="2" t="s">
@@ -10677,7 +10683,7 @@
       <c r="A708" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B708" s="2" t="s">
+      <c r="B708" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C708" s="2" t="s">
@@ -10688,7 +10694,7 @@
       <c r="A709" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B709" s="2" t="s">
+      <c r="B709" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C709" s="2" t="s">
@@ -10699,7 +10705,7 @@
       <c r="A710" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B710" s="2" t="s">
+      <c r="B710" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C710" s="2" t="s">
@@ -10710,7 +10716,7 @@
       <c r="A711" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B711" s="2" t="s">
+      <c r="B711" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C711" s="2" t="s">
@@ -10721,7 +10727,7 @@
       <c r="A712" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B712" s="2" t="s">
+      <c r="B712" s="4" t="s">
         <v>378</v>
       </c>
       <c r="C712" s="2" t="s">
@@ -10732,7 +10738,7 @@
       <c r="A713" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B713" s="2" t="s">
+      <c r="B713" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C713" s="2" t="s">
@@ -10743,7 +10749,7 @@
       <c r="A714" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B714" s="2" t="s">
+      <c r="B714" s="4" t="s">
         <v>380</v>
       </c>
       <c r="C714" s="2" t="s">
@@ -10754,7 +10760,7 @@
       <c r="A715" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B715" s="2" t="s">
+      <c r="B715" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C715" s="2" t="s">
@@ -10765,7 +10771,7 @@
       <c r="A716" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B716" s="2" t="s">
+      <c r="B716" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C716" s="2" t="s">
@@ -10776,7 +10782,7 @@
       <c r="A717" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B717" s="2" t="s">
+      <c r="B717" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C717" s="2" t="s">
@@ -10787,7 +10793,7 @@
       <c r="A718" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B718" s="2" t="s">
+      <c r="B718" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C718" s="2" t="s">
@@ -10798,7 +10804,7 @@
       <c r="A719" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B719" s="2" t="s">
+      <c r="B719" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C719" s="2" t="s">
@@ -10809,7 +10815,7 @@
       <c r="A720" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B720" s="2" t="s">
+      <c r="B720" s="4" t="s">
         <v>386</v>
       </c>
       <c r="C720" s="2" t="s">
@@ -10820,7 +10826,7 @@
       <c r="A721" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B721" s="2" t="s">
+      <c r="B721" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C721" s="2" t="s">
@@ -10831,7 +10837,7 @@
       <c r="A722" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B722" s="2" t="s">
+      <c r="B722" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C722" s="2" t="s">
@@ -10842,7 +10848,7 @@
       <c r="A723" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B723" s="2" t="s">
+      <c r="B723" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C723" s="2" t="s">
@@ -10853,7 +10859,7 @@
       <c r="A724" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B724" s="2" t="s">
+      <c r="B724" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C724" s="2" t="s">
@@ -10864,7 +10870,7 @@
       <c r="A725" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B725" s="2" t="s">
+      <c r="B725" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C725" s="2" t="s">
@@ -10875,7 +10881,7 @@
       <c r="A726" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B726" s="2" t="s">
+      <c r="B726" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C726" s="2" t="s">
@@ -10886,7 +10892,7 @@
       <c r="A727" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B727" s="2" t="s">
+      <c r="B727" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C727" s="2" t="s">
@@ -10897,7 +10903,7 @@
       <c r="A728" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B728" s="2" t="s">
+      <c r="B728" s="4" t="s">
         <v>394</v>
       </c>
       <c r="C728" s="2" t="s">
@@ -10908,7 +10914,7 @@
       <c r="A729" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B729" s="2" t="s">
+      <c r="B729" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C729" s="2" t="s">
@@ -10919,7 +10925,7 @@
       <c r="A730" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B730" s="2" t="s">
+      <c r="B730" s="4" t="s">
         <v>396</v>
       </c>
       <c r="C730" s="2" t="s">
@@ -10930,7 +10936,7 @@
       <c r="A731" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B731" s="2" t="s">
+      <c r="B731" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C731" s="2" t="s">
@@ -10941,7 +10947,7 @@
       <c r="A732" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B732" s="2" t="s">
+      <c r="B732" s="4" t="s">
         <v>398</v>
       </c>
       <c r="C732" s="2" t="s">
@@ -10952,7 +10958,7 @@
       <c r="A733" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="B733" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C733" s="2" t="s">
@@ -10963,7 +10969,7 @@
       <c r="A734" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B734" s="2" t="s">
+      <c r="B734" s="4" t="s">
         <v>400</v>
       </c>
       <c r="C734" s="2" t="s">
@@ -10974,7 +10980,7 @@
       <c r="A735" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B735" s="2" t="s">
+      <c r="B735" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C735" s="2" t="s">
@@ -10985,7 +10991,7 @@
       <c r="A736" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B736" s="2" t="s">
+      <c r="B736" s="4" t="s">
         <v>402</v>
       </c>
       <c r="C736" s="2" t="s">
@@ -10996,7 +11002,7 @@
       <c r="A737" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B737" s="2" t="s">
+      <c r="B737" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C737" s="2" t="s">
@@ -11007,7 +11013,7 @@
       <c r="A738" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B738" s="2" t="s">
+      <c r="B738" s="4" t="s">
         <v>404</v>
       </c>
       <c r="C738" s="2" t="s">
@@ -11018,7 +11024,7 @@
       <c r="A739" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B739" s="2" t="s">
+      <c r="B739" s="4" t="s">
         <v>405</v>
       </c>
       <c r="C739" s="2" t="s">
@@ -11029,7 +11035,7 @@
       <c r="A740" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B740" s="2" t="s">
+      <c r="B740" s="4" t="s">
         <v>406</v>
       </c>
       <c r="C740" s="2" t="s">
@@ -11040,7 +11046,7 @@
       <c r="A741" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B741" s="2" t="s">
+      <c r="B741" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C741" s="2" t="s">
@@ -11051,7 +11057,7 @@
       <c r="A742" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B742" s="2" t="s">
+      <c r="B742" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C742" s="2" t="s">
@@ -11062,7 +11068,7 @@
       <c r="A743" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B743" s="2" t="s">
+      <c r="B743" s="4" t="s">
         <v>409</v>
       </c>
       <c r="C743" s="2" t="s">
@@ -11073,7 +11079,7 @@
       <c r="A744" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B744" s="2" t="s">
+      <c r="B744" s="4" t="s">
         <v>410</v>
       </c>
       <c r="C744" s="2" t="s">
@@ -11084,7 +11090,7 @@
       <c r="A745" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B745" s="2" t="s">
+      <c r="B745" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C745" s="2" t="s">
@@ -11095,7 +11101,7 @@
       <c r="A746" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B746" s="2" t="s">
+      <c r="B746" s="4" t="s">
         <v>411</v>
       </c>
       <c r="C746" s="2" t="s">
@@ -11106,7 +11112,7 @@
       <c r="A747" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B747" s="2" t="s">
+      <c r="B747" s="4" t="s">
         <v>412</v>
       </c>
       <c r="C747" s="2" t="s">
@@ -11117,7 +11123,7 @@
       <c r="A748" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B748" s="2" t="s">
+      <c r="B748" s="4" t="s">
         <v>413</v>
       </c>
       <c r="C748" s="2" t="s">
@@ -11128,7 +11134,7 @@
       <c r="A749" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B749" s="2" t="s">
+      <c r="B749" s="4" t="s">
         <v>414</v>
       </c>
       <c r="C749" s="2" t="s">
@@ -11139,7 +11145,7 @@
       <c r="A750" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B750" s="2" t="s">
+      <c r="B750" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C750" s="2" t="s">
@@ -11150,7 +11156,7 @@
       <c r="A751" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B751" s="2" t="s">
+      <c r="B751" s="4" t="s">
         <v>416</v>
       </c>
       <c r="C751" s="2" t="s">
@@ -11161,7 +11167,7 @@
       <c r="A752" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B752" s="2" t="s">
+      <c r="B752" s="4" t="s">
         <v>417</v>
       </c>
       <c r="C752" s="2" t="s">
@@ -11172,7 +11178,7 @@
       <c r="A753" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B753" s="2" t="s">
+      <c r="B753" s="4" t="s">
         <v>418</v>
       </c>
       <c r="C753" s="2" t="s">
@@ -11183,7 +11189,7 @@
       <c r="A754" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B754" s="2" t="s">
+      <c r="B754" s="4" t="s">
         <v>419</v>
       </c>
       <c r="C754" s="2" t="s">
@@ -11194,7 +11200,7 @@
       <c r="A755" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B755" s="2" t="s">
+      <c r="B755" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C755" s="2" t="s">
@@ -11205,7 +11211,7 @@
       <c r="A756" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B756" s="2" t="s">
+      <c r="B756" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C756" s="2" t="s">
@@ -11216,7 +11222,7 @@
       <c r="A757" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B757" s="2" t="s">
+      <c r="B757" s="4" t="s">
         <v>422</v>
       </c>
       <c r="C757" s="2" t="s">
@@ -11227,7 +11233,7 @@
       <c r="A758" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B758" s="2" t="s">
+      <c r="B758" s="4" t="s">
         <v>423</v>
       </c>
       <c r="C758" s="2" t="s">
@@ -11238,7 +11244,7 @@
       <c r="A759" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B759" s="2" t="s">
+      <c r="B759" s="4" t="s">
         <v>424</v>
       </c>
       <c r="C759" s="2" t="s">
@@ -11249,7 +11255,7 @@
       <c r="A760" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B760" s="2" t="s">
+      <c r="B760" s="4" t="s">
         <v>425</v>
       </c>
       <c r="C760" s="2" t="s">
@@ -11260,7 +11266,7 @@
       <c r="A761" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B761" s="2" t="s">
+      <c r="B761" s="4" t="s">
         <v>426</v>
       </c>
       <c r="C761" s="2" t="s">
@@ -11271,7 +11277,7 @@
       <c r="A762" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B762" s="2" t="s">
+      <c r="B762" s="4" t="s">
         <v>427</v>
       </c>
       <c r="C762" s="2" t="s">
@@ -11282,7 +11288,7 @@
       <c r="A763" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B763" s="2" t="s">
+      <c r="B763" s="4" t="s">
         <v>428</v>
       </c>
       <c r="C763" s="2" t="s">
@@ -11293,7 +11299,7 @@
       <c r="A764" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B764" s="2" t="s">
+      <c r="B764" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C764" s="2" t="s">
@@ -11304,7 +11310,7 @@
       <c r="A765" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B765" s="2" t="s">
+      <c r="B765" s="4" t="s">
         <v>430</v>
       </c>
       <c r="C765" s="2" t="s">
@@ -11315,7 +11321,7 @@
       <c r="A766" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="B766" s="4" t="s">
         <v>431</v>
       </c>
       <c r="C766" s="2" t="s">
@@ -11326,7 +11332,7 @@
       <c r="A767" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B767" s="2" t="s">
+      <c r="B767" s="4" t="s">
         <v>432</v>
       </c>
       <c r="C767" s="2" t="s">
@@ -11337,7 +11343,7 @@
       <c r="A768" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="B768" s="4" t="s">
         <v>433</v>
       </c>
       <c r="C768" s="2" t="s">
@@ -11348,7 +11354,7 @@
       <c r="A769" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B769" s="2" t="s">
+      <c r="B769" s="4" t="s">
         <v>434</v>
       </c>
       <c r="C769" s="2" t="s">
@@ -11359,7 +11365,7 @@
       <c r="A770" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="B770" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C770" s="2" t="s">
@@ -11370,7 +11376,7 @@
       <c r="A771" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B771" s="2" t="s">
+      <c r="B771" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C771" s="2" t="s">
@@ -11381,7 +11387,7 @@
       <c r="A772" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B772" s="2" t="s">
+      <c r="B772" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C772" s="2" t="s">
@@ -11392,7 +11398,7 @@
       <c r="A773" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B773" s="2" t="s">
+      <c r="B773" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C773" s="2" t="s">
@@ -11403,7 +11409,7 @@
       <c r="A774" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="B774" s="4" t="s">
         <v>439</v>
       </c>
       <c r="C774" s="2" t="s">
@@ -11414,7 +11420,7 @@
       <c r="A775" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B775" s="2" t="s">
+      <c r="B775" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C775" s="2" t="s">
@@ -11425,7 +11431,7 @@
       <c r="A776" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B776" s="2" t="s">
+      <c r="B776" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C776" s="2" t="s">
@@ -11436,7 +11442,7 @@
       <c r="A777" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B777" s="2" t="s">
+      <c r="B777" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C777" s="2" t="s">
@@ -11447,7 +11453,7 @@
       <c r="A778" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B778" s="2" t="s">
+      <c r="B778" s="4" t="s">
         <v>443</v>
       </c>
       <c r="C778" s="2" t="s">
@@ -11458,7 +11464,7 @@
       <c r="A779" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B779" s="2" t="s">
+      <c r="B779" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C779" s="2" t="s">
@@ -11469,7 +11475,7 @@
       <c r="A780" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B780" s="2" t="s">
+      <c r="B780" s="4" t="s">
         <v>445</v>
       </c>
       <c r="C780" s="2" t="s">
@@ -11480,7 +11486,7 @@
       <c r="A781" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B781" s="2" t="s">
+      <c r="B781" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C781" s="2" t="s">
@@ -11491,7 +11497,7 @@
       <c r="A782" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B782" s="2" t="s">
+      <c r="B782" s="4" t="s">
         <v>447</v>
       </c>
       <c r="C782" s="2" t="s">
@@ -11502,7 +11508,7 @@
       <c r="A783" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B783" s="2" t="s">
+      <c r="B783" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C783" s="2" t="s">
@@ -11513,7 +11519,7 @@
       <c r="A784" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B784" s="2" t="s">
+      <c r="B784" s="4" t="s">
         <v>449</v>
       </c>
       <c r="C784" s="2" t="s">
@@ -11524,7 +11530,7 @@
       <c r="A785" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B785" s="2" t="s">
+      <c r="B785" s="4" t="s">
         <v>450</v>
       </c>
       <c r="C785" s="2" t="s">
@@ -11535,7 +11541,7 @@
       <c r="A786" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B786" s="2" t="s">
+      <c r="B786" s="4" t="s">
         <v>451</v>
       </c>
       <c r="C786" s="2" t="s">
@@ -11546,7 +11552,7 @@
       <c r="A787" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B787" s="2" t="s">
+      <c r="B787" s="4" t="s">
         <v>452</v>
       </c>
       <c r="C787" s="2" t="s">
@@ -11557,7 +11563,7 @@
       <c r="A788" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B788" s="2" t="s">
+      <c r="B788" s="4" t="s">
         <v>453</v>
       </c>
       <c r="C788" s="2" t="s">
@@ -11568,7 +11574,7 @@
       <c r="A789" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B789" s="2" t="s">
+      <c r="B789" s="4" t="s">
         <v>454</v>
       </c>
       <c r="C789" s="2" t="s">
@@ -11579,7 +11585,7 @@
       <c r="A790" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B790" s="2" t="s">
+      <c r="B790" s="4" t="s">
         <v>455</v>
       </c>
       <c r="C790" s="2" t="s">
@@ -11590,7 +11596,7 @@
       <c r="A791" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B791" s="2" t="s">
+      <c r="B791" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C791" s="2" t="s">
@@ -11601,7 +11607,7 @@
       <c r="A792" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B792" s="2" t="s">
+      <c r="B792" s="4" t="s">
         <v>457</v>
       </c>
       <c r="C792" s="2" t="s">
@@ -11612,7 +11618,7 @@
       <c r="A793" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B793" s="2" t="s">
+      <c r="B793" s="4" t="s">
         <v>458</v>
       </c>
       <c r="C793" s="2" t="s">
@@ -11623,7 +11629,7 @@
       <c r="A794" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B794" s="2" t="s">
+      <c r="B794" s="4" t="s">
         <v>459</v>
       </c>
       <c r="C794" s="2" t="s">
@@ -11634,7 +11640,7 @@
       <c r="A795" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B795" s="2" t="s">
+      <c r="B795" s="4" t="s">
         <v>460</v>
       </c>
       <c r="C795" s="2" t="s">
@@ -11645,7 +11651,7 @@
       <c r="A796" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B796" s="2" t="s">
+      <c r="B796" s="4" t="s">
         <v>461</v>
       </c>
       <c r="C796" s="2" t="s">
@@ -11656,7 +11662,7 @@
       <c r="A797" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B797" s="2" t="s">
+      <c r="B797" s="4" t="s">
         <v>462</v>
       </c>
       <c r="C797" s="2" t="s">
@@ -11667,7 +11673,7 @@
       <c r="A798" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B798" s="2" t="s">
+      <c r="B798" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C798" s="2" t="s">
@@ -11678,7 +11684,7 @@
       <c r="A799" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B799" s="2" t="s">
+      <c r="B799" s="4" t="s">
         <v>464</v>
       </c>
       <c r="C799" s="2" t="s">
@@ -11689,7 +11695,7 @@
       <c r="A800" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B800" s="2" t="s">
+      <c r="B800" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C800" s="2" t="s">
@@ -11700,7 +11706,7 @@
       <c r="A801" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B801" s="2" t="s">
+      <c r="B801" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C801" s="2" t="s">
@@ -11711,7 +11717,7 @@
       <c r="A802" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B802" s="2" t="s">
+      <c r="B802" s="4" t="s">
         <v>467</v>
       </c>
       <c r="C802" s="2" t="s">
@@ -11722,7 +11728,7 @@
       <c r="A803" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B803" s="2" t="s">
+      <c r="B803" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C803" s="2" t="s">
@@ -11733,7 +11739,7 @@
       <c r="A804" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B804" s="2" t="s">
+      <c r="B804" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C804" s="2" t="s">
@@ -11744,7 +11750,7 @@
       <c r="A805" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B805" s="2" t="s">
+      <c r="B805" s="4" t="s">
         <v>470</v>
       </c>
       <c r="C805" s="2" t="s">
@@ -11755,7 +11761,7 @@
       <c r="A806" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B806" s="2" t="s">
+      <c r="B806" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C806" s="2" t="s">
@@ -11766,7 +11772,7 @@
       <c r="A807" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B807" s="2" t="s">
+      <c r="B807" s="4" t="s">
         <v>472</v>
       </c>
       <c r="C807" s="2" t="s">
@@ -11777,7 +11783,7 @@
       <c r="A808" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B808" s="2" t="s">
+      <c r="B808" s="4" t="s">
         <v>473</v>
       </c>
       <c r="C808" s="2" t="s">
@@ -11788,7 +11794,7 @@
       <c r="A809" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B809" s="2" t="s">
+      <c r="B809" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C809" s="2" t="s">
@@ -11799,7 +11805,7 @@
       <c r="A810" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B810" s="2" t="s">
+      <c r="B810" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C810" s="2" t="s">
@@ -11810,7 +11816,7 @@
       <c r="A811" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B811" s="2" t="s">
+      <c r="B811" s="4" t="s">
         <v>476</v>
       </c>
       <c r="C811" s="2" t="s">
@@ -11821,7 +11827,7 @@
       <c r="A812" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B812" s="2" t="s">
+      <c r="B812" s="4" t="s">
         <v>477</v>
       </c>
       <c r="C812" s="2" t="s">
@@ -11832,7 +11838,7 @@
       <c r="A813" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B813" s="2" t="s">
+      <c r="B813" s="4" t="s">
         <v>478</v>
       </c>
       <c r="C813" s="2" t="s">
@@ -11843,7 +11849,7 @@
       <c r="A814" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B814" s="2" t="s">
+      <c r="B814" s="4" t="s">
         <v>479</v>
       </c>
       <c r="C814" s="2" t="s">
@@ -11854,7 +11860,7 @@
       <c r="A815" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B815" s="2" t="s">
+      <c r="B815" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C815" s="2" t="s">
@@ -11865,7 +11871,7 @@
       <c r="A816" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B816" s="2" t="s">
+      <c r="B816" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C816" s="2" t="s">
@@ -11876,7 +11882,7 @@
       <c r="A817" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B817" s="2" t="s">
+      <c r="B817" s="4" t="s">
         <v>482</v>
       </c>
       <c r="C817" s="2" t="s">
@@ -11887,7 +11893,7 @@
       <c r="A818" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B818" s="2" t="s">
+      <c r="B818" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C818" s="2" t="s">
@@ -11898,7 +11904,7 @@
       <c r="A819" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B819" s="2" t="s">
+      <c r="B819" s="4" t="s">
         <v>484</v>
       </c>
       <c r="C819" s="2" t="s">
@@ -11909,7 +11915,7 @@
       <c r="A820" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B820" s="2" t="s">
+      <c r="B820" s="4" t="s">
         <v>485</v>
       </c>
       <c r="C820" s="2" t="s">
@@ -11920,7 +11926,7 @@
       <c r="A821" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B821" s="2" t="s">
+      <c r="B821" s="4" t="s">
         <v>486</v>
       </c>
       <c r="C821" s="2" t="s">
@@ -11931,7 +11937,7 @@
       <c r="A822" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B822" s="2" t="s">
+      <c r="B822" s="4" t="s">
         <v>487</v>
       </c>
       <c r="C822" s="2" t="s">
@@ -11942,7 +11948,7 @@
       <c r="A823" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B823" s="2" t="s">
+      <c r="B823" s="4" t="s">
         <v>488</v>
       </c>
       <c r="C823" s="2" t="s">
@@ -11953,7 +11959,7 @@
       <c r="A824" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B824" s="2" t="s">
+      <c r="B824" s="4" t="s">
         <v>489</v>
       </c>
       <c r="C824" s="2" t="s">
@@ -11964,7 +11970,7 @@
       <c r="A825" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B825" s="2" t="s">
+      <c r="B825" s="4" t="s">
         <v>490</v>
       </c>
       <c r="C825" s="2" t="s">
@@ -11975,7 +11981,7 @@
       <c r="A826" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B826" s="2" t="s">
+      <c r="B826" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C826" s="2" t="s">
@@ -11986,7 +11992,7 @@
       <c r="A827" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B827" s="2" t="s">
+      <c r="B827" s="4" t="s">
         <v>492</v>
       </c>
       <c r="C827" s="2" t="s">
@@ -11997,7 +12003,7 @@
       <c r="A828" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B828" s="2" t="s">
+      <c r="B828" s="4" t="s">
         <v>493</v>
       </c>
       <c r="C828" s="2" t="s">
@@ -12008,7 +12014,7 @@
       <c r="A829" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B829" s="2" t="s">
+      <c r="B829" s="4" t="s">
         <v>494</v>
       </c>
       <c r="C829" s="2" t="s">
@@ -12019,7 +12025,7 @@
       <c r="A830" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B830" s="2" t="s">
+      <c r="B830" s="4" t="s">
         <v>495</v>
       </c>
       <c r="C830" s="2" t="s">
@@ -12030,7 +12036,7 @@
       <c r="A831" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B831" s="2" t="s">
+      <c r="B831" s="4" t="s">
         <v>496</v>
       </c>
       <c r="C831" s="2" t="s">
@@ -12041,7 +12047,7 @@
       <c r="A832" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B832" s="2" t="s">
+      <c r="B832" s="4" t="s">
         <v>497</v>
       </c>
       <c r="C832" s="2" t="s">
@@ -12052,7 +12058,7 @@
       <c r="A833" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B833" s="2" t="s">
+      <c r="B833" s="4" t="s">
         <v>498</v>
       </c>
       <c r="C833" s="2" t="s">
@@ -12063,7 +12069,7 @@
       <c r="A834" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B834" s="2" t="s">
+      <c r="B834" s="4" t="s">
         <v>499</v>
       </c>
       <c r="C834" s="2" t="s">
@@ -12074,7 +12080,7 @@
       <c r="A835" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B835" s="2" t="s">
+      <c r="B835" s="4" t="s">
         <v>500</v>
       </c>
       <c r="C835" s="2" t="s">
@@ -12085,7 +12091,7 @@
       <c r="A836" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B836" s="2" t="s">
+      <c r="B836" s="4" t="s">
         <v>501</v>
       </c>
       <c r="C836" s="2" t="s">
@@ -12096,7 +12102,7 @@
       <c r="A837" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B837" s="2" t="s">
+      <c r="B837" s="4" t="s">
         <v>502</v>
       </c>
       <c r="C837" s="2" t="s">
@@ -12107,7 +12113,7 @@
       <c r="A838" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B838" s="2" t="s">
+      <c r="B838" s="4" t="s">
         <v>503</v>
       </c>
       <c r="C838" s="2" t="s">
@@ -12118,7 +12124,7 @@
       <c r="A839" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B839" s="2" t="s">
+      <c r="B839" s="4" t="s">
         <v>504</v>
       </c>
       <c r="C839" s="2" t="s">
@@ -12129,7 +12135,7 @@
       <c r="A840" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B840" s="2" t="s">
+      <c r="B840" s="4" t="s">
         <v>505</v>
       </c>
       <c r="C840" s="2" t="s">
@@ -12140,7 +12146,7 @@
       <c r="A841" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B841" s="2" t="s">
+      <c r="B841" s="4" t="s">
         <v>506</v>
       </c>
       <c r="C841" s="2" t="s">
@@ -12151,7 +12157,7 @@
       <c r="A842" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B842" s="2" t="s">
+      <c r="B842" s="4" t="s">
         <v>507</v>
       </c>
       <c r="C842" s="2" t="s">
@@ -12162,7 +12168,7 @@
       <c r="A843" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B843" s="2" t="s">
+      <c r="B843" s="4" t="s">
         <v>508</v>
       </c>
       <c r="C843" s="2" t="s">
@@ -12173,7 +12179,7 @@
       <c r="A844" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B844" s="2" t="s">
+      <c r="B844" s="4" t="s">
         <v>509</v>
       </c>
       <c r="C844" s="2" t="s">
@@ -12184,7 +12190,7 @@
       <c r="A845" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B845" s="2" t="s">
+      <c r="B845" s="4" t="s">
         <v>510</v>
       </c>
       <c r="C845" s="2" t="s">
@@ -12195,7 +12201,7 @@
       <c r="A846" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B846" s="2" t="s">
+      <c r="B846" s="4" t="s">
         <v>511</v>
       </c>
       <c r="C846" s="2" t="s">
@@ -12206,7 +12212,7 @@
       <c r="A847" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B847" s="2" t="s">
+      <c r="B847" s="4" t="s">
         <v>512</v>
       </c>
       <c r="C847" s="2" t="s">
@@ -12217,7 +12223,7 @@
       <c r="A848" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B848" s="2" t="s">
+      <c r="B848" s="4" t="s">
         <v>513</v>
       </c>
       <c r="C848" s="2" t="s">
@@ -12228,7 +12234,7 @@
       <c r="A849" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B849" s="2" t="s">
+      <c r="B849" s="4" t="s">
         <v>514</v>
       </c>
       <c r="C849" s="2" t="s">
@@ -12239,7 +12245,7 @@
       <c r="A850" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B850" s="2" t="s">
+      <c r="B850" s="4" t="s">
         <v>515</v>
       </c>
       <c r="C850" s="2" t="s">
@@ -12250,7 +12256,7 @@
       <c r="A851" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B851" s="2" t="s">
+      <c r="B851" s="4" t="s">
         <v>516</v>
       </c>
       <c r="C851" s="2" t="s">
@@ -12261,7 +12267,7 @@
       <c r="A852" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B852" s="2" t="s">
+      <c r="B852" s="4" t="s">
         <v>517</v>
       </c>
       <c r="C852" s="2" t="s">
@@ -12272,7 +12278,7 @@
       <c r="A853" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B853" s="2" t="s">
+      <c r="B853" s="4" t="s">
         <v>518</v>
       </c>
       <c r="C853" s="2" t="s">
@@ -12283,7 +12289,7 @@
       <c r="A854" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B854" s="2" t="s">
+      <c r="B854" s="4" t="s">
         <v>519</v>
       </c>
       <c r="C854" s="2" t="s">
@@ -12294,7 +12300,7 @@
       <c r="A855" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B855" s="2" t="s">
+      <c r="B855" s="4" t="s">
         <v>520</v>
       </c>
       <c r="C855" s="2" t="s">
@@ -12305,7 +12311,7 @@
       <c r="A856" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B856" s="2" t="s">
+      <c r="B856" s="4" t="s">
         <v>521</v>
       </c>
       <c r="C856" s="2" t="s">
@@ -12316,7 +12322,7 @@
       <c r="A857" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B857" s="2" t="s">
+      <c r="B857" s="4" t="s">
         <v>522</v>
       </c>
       <c r="C857" s="2" t="s">
@@ -12327,7 +12333,7 @@
       <c r="A858" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B858" s="2" t="s">
+      <c r="B858" s="4" t="s">
         <v>523</v>
       </c>
       <c r="C858" s="2" t="s">
@@ -12338,7 +12344,7 @@
       <c r="A859" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B859" s="2" t="s">
+      <c r="B859" s="4" t="s">
         <v>524</v>
       </c>
       <c r="C859" s="2" t="s">
@@ -12349,7 +12355,7 @@
       <c r="A860" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B860" s="2" t="s">
+      <c r="B860" s="4" t="s">
         <v>525</v>
       </c>
       <c r="C860" s="2" t="s">
@@ -12360,7 +12366,7 @@
       <c r="A861" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B861" s="2" t="s">
+      <c r="B861" s="4" t="s">
         <v>526</v>
       </c>
       <c r="C861" s="2" t="s">
@@ -12371,7 +12377,7 @@
       <c r="A862" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B862" s="2" t="s">
+      <c r="B862" s="4" t="s">
         <v>527</v>
       </c>
       <c r="C862" s="2" t="s">
@@ -12382,7 +12388,7 @@
       <c r="A863" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B863" s="2" t="s">
+      <c r="B863" s="4" t="s">
         <v>528</v>
       </c>
       <c r="C863" s="2" t="s">
@@ -12393,7 +12399,7 @@
       <c r="A864" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B864" s="2" t="s">
+      <c r="B864" s="4" t="s">
         <v>529</v>
       </c>
       <c r="C864" s="2" t="s">
@@ -12404,7 +12410,7 @@
       <c r="A865" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B865" s="2" t="s">
+      <c r="B865" s="4" t="s">
         <v>530</v>
       </c>
       <c r="C865" s="2" t="s">
@@ -12415,7 +12421,7 @@
       <c r="A866" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B866" s="2" t="s">
+      <c r="B866" s="4" t="s">
         <v>531</v>
       </c>
       <c r="C866" s="2" t="s">
@@ -12426,7 +12432,7 @@
       <c r="A867" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B867" s="2" t="s">
+      <c r="B867" s="4" t="s">
         <v>532</v>
       </c>
       <c r="C867" s="2" t="s">
@@ -12437,7 +12443,7 @@
       <c r="A868" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B868" s="2" t="s">
+      <c r="B868" s="4" t="s">
         <v>533</v>
       </c>
       <c r="C868" s="2" t="s">
@@ -12448,7 +12454,7 @@
       <c r="A869" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B869" s="2" t="s">
+      <c r="B869" s="4" t="s">
         <v>534</v>
       </c>
       <c r="C869" s="2" t="s">
@@ -12459,7 +12465,7 @@
       <c r="A870" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B870" s="2" t="s">
+      <c r="B870" s="4" t="s">
         <v>535</v>
       </c>
       <c r="C870" s="2" t="s">
@@ -12470,7 +12476,7 @@
       <c r="A871" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B871" s="2" t="s">
+      <c r="B871" s="4" t="s">
         <v>536</v>
       </c>
       <c r="C871" s="2" t="s">
@@ -12481,7 +12487,7 @@
       <c r="A872" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B872" s="2" t="s">
+      <c r="B872" s="4" t="s">
         <v>537</v>
       </c>
       <c r="C872" s="2" t="s">
@@ -12492,7 +12498,7 @@
       <c r="A873" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B873" s="2" t="s">
+      <c r="B873" s="4" t="s">
         <v>538</v>
       </c>
       <c r="C873" s="2" t="s">
@@ -12503,7 +12509,7 @@
       <c r="A874" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B874" s="2" t="s">
+      <c r="B874" s="4" t="s">
         <v>539</v>
       </c>
       <c r="C874" s="2" t="s">
@@ -12514,7 +12520,7 @@
       <c r="A875" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B875" s="2" t="s">
+      <c r="B875" s="4" t="s">
         <v>540</v>
       </c>
       <c r="C875" s="2" t="s">
@@ -12525,7 +12531,7 @@
       <c r="A876" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B876" s="2" t="s">
+      <c r="B876" s="4" t="s">
         <v>541</v>
       </c>
       <c r="C876" s="2" t="s">
@@ -12536,7 +12542,7 @@
       <c r="A877" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B877" s="2" t="s">
+      <c r="B877" s="4" t="s">
         <v>542</v>
       </c>
       <c r="C877" s="2" t="s">
@@ -12547,7 +12553,7 @@
       <c r="A878" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B878" s="2" t="s">
+      <c r="B878" s="4" t="s">
         <v>543</v>
       </c>
       <c r="C878" s="2" t="s">
@@ -12558,7 +12564,7 @@
       <c r="A879" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B879" s="2" t="s">
+      <c r="B879" s="4" t="s">
         <v>544</v>
       </c>
       <c r="C879" s="2" t="s">
@@ -12569,7 +12575,7 @@
       <c r="A880" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B880" s="2" t="s">
+      <c r="B880" s="4" t="s">
         <v>545</v>
       </c>
       <c r="C880" s="2" t="s">
@@ -12580,7 +12586,7 @@
       <c r="A881" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B881" s="2" t="s">
+      <c r="B881" s="4" t="s">
         <v>546</v>
       </c>
       <c r="C881" s="2" t="s">
@@ -12591,7 +12597,7 @@
       <c r="A882" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B882" s="2" t="s">
+      <c r="B882" s="4" t="s">
         <v>547</v>
       </c>
       <c r="C882" s="2" t="s">
@@ -12602,7 +12608,7 @@
       <c r="A883" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B883" s="2" t="s">
+      <c r="B883" s="4" t="s">
         <v>548</v>
       </c>
       <c r="C883" s="2" t="s">
@@ -12613,7 +12619,7 @@
       <c r="A884" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B884" s="2" t="s">
+      <c r="B884" s="4" t="s">
         <v>549</v>
       </c>
       <c r="C884" s="2" t="s">
@@ -12624,7 +12630,7 @@
       <c r="A885" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B885" s="2" t="s">
+      <c r="B885" s="4" t="s">
         <v>550</v>
       </c>
       <c r="C885" s="2" t="s">
@@ -12635,7 +12641,7 @@
       <c r="A886" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B886" s="2" t="s">
+      <c r="B886" s="4" t="s">
         <v>551</v>
       </c>
       <c r="C886" s="2" t="s">
@@ -12646,7 +12652,7 @@
       <c r="A887" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B887" s="2" t="s">
+      <c r="B887" s="4" t="s">
         <v>552</v>
       </c>
       <c r="C887" s="2" t="s">
@@ -12657,7 +12663,7 @@
       <c r="A888" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B888" s="2" t="s">
+      <c r="B888" s="4" t="s">
         <v>553</v>
       </c>
       <c r="C888" s="2" t="s">
@@ -12668,7 +12674,7 @@
       <c r="A889" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B889" s="2" t="s">
+      <c r="B889" s="4" t="s">
         <v>554</v>
       </c>
       <c r="C889" s="2" t="s">
@@ -12679,7 +12685,7 @@
       <c r="A890" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B890" s="2" t="s">
+      <c r="B890" s="4" t="s">
         <v>555</v>
       </c>
       <c r="C890" s="2" t="s">
@@ -12690,7 +12696,7 @@
       <c r="A891" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B891" s="2" t="s">
+      <c r="B891" s="4" t="s">
         <v>556</v>
       </c>
       <c r="C891" s="2" t="s">
@@ -12701,7 +12707,7 @@
       <c r="A892" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B892" s="2" t="s">
+      <c r="B892" s="4" t="s">
         <v>557</v>
       </c>
       <c r="C892" s="2" t="s">
@@ -12712,7 +12718,7 @@
       <c r="A893" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B893" s="2" t="s">
+      <c r="B893" s="4" t="s">
         <v>558</v>
       </c>
       <c r="C893" s="2" t="s">
@@ -12723,7 +12729,7 @@
       <c r="A894" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B894" s="2" t="s">
+      <c r="B894" s="4" t="s">
         <v>559</v>
       </c>
       <c r="C894" s="2" t="s">
@@ -12734,7 +12740,7 @@
       <c r="A895" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B895" s="2" t="s">
+      <c r="B895" s="4" t="s">
         <v>560</v>
       </c>
       <c r="C895" s="2" t="s">
@@ -12745,7 +12751,7 @@
       <c r="A896" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B896" s="2" t="s">
+      <c r="B896" s="4" t="s">
         <v>561</v>
       </c>
       <c r="C896" s="2" t="s">
@@ -12756,7 +12762,7 @@
       <c r="A897" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B897" s="2" t="s">
+      <c r="B897" s="4" t="s">
         <v>562</v>
       </c>
       <c r="C897" s="2" t="s">
@@ -12767,7 +12773,7 @@
       <c r="A898" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B898" s="2" t="s">
+      <c r="B898" s="4" t="s">
         <v>563</v>
       </c>
       <c r="C898" s="2" t="s">
@@ -12778,7 +12784,7 @@
       <c r="A899" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B899" s="2" t="s">
+      <c r="B899" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C899" s="2" t="s">
@@ -12789,7 +12795,7 @@
       <c r="A900" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B900" s="2" t="s">
+      <c r="B900" s="4" t="s">
         <v>565</v>
       </c>
       <c r="C900" s="2" t="s">
@@ -12800,7 +12806,7 @@
       <c r="A901" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B901" s="2" t="s">
+      <c r="B901" s="4" t="s">
         <v>566</v>
       </c>
       <c r="C901" s="2" t="s">
@@ -12811,7 +12817,7 @@
       <c r="A902" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B902" s="2" t="s">
+      <c r="B902" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C902" s="2" t="s">
@@ -12822,7 +12828,7 @@
       <c r="A903" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B903" s="2" t="s">
+      <c r="B903" s="4" t="s">
         <v>568</v>
       </c>
       <c r="C903" s="2" t="s">
@@ -12833,7 +12839,7 @@
       <c r="A904" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B904" s="2" t="s">
+      <c r="B904" s="4" t="s">
         <v>569</v>
       </c>
       <c r="C904" s="2" t="s">
@@ -12844,7 +12850,7 @@
       <c r="A905" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B905" s="2" t="s">
+      <c r="B905" s="4" t="s">
         <v>570</v>
       </c>
       <c r="C905" s="2" t="s">
@@ -12855,7 +12861,7 @@
       <c r="A906" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B906" s="2" t="s">
+      <c r="B906" s="4" t="s">
         <v>571</v>
       </c>
       <c r="C906" s="2" t="s">
@@ -12866,7 +12872,7 @@
       <c r="A907" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B907" s="2" t="s">
+      <c r="B907" s="4" t="s">
         <v>572</v>
       </c>
       <c r="C907" s="2" t="s">
@@ -12877,7 +12883,7 @@
       <c r="A908" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B908" s="2" t="s">
+      <c r="B908" s="4" t="s">
         <v>573</v>
       </c>
       <c r="C908" s="2" t="s">
@@ -12888,7 +12894,7 @@
       <c r="A909" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B909" s="2" t="s">
+      <c r="B909" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C909" s="2" t="s">
@@ -12899,7 +12905,7 @@
       <c r="A910" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B910" s="2" t="s">
+      <c r="B910" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C910" s="2" t="s">
@@ -12910,7 +12916,7 @@
       <c r="A911" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B911" s="2" t="s">
+      <c r="B911" s="4" t="s">
         <v>576</v>
       </c>
       <c r="C911" s="2" t="s">
@@ -12921,7 +12927,7 @@
       <c r="A912" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B912" s="2" t="s">
+      <c r="B912" s="4" t="s">
         <v>577</v>
       </c>
       <c r="C912" s="2" t="s">
@@ -12932,7 +12938,7 @@
       <c r="A913" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B913" s="2" t="s">
+      <c r="B913" s="4" t="s">
         <v>578</v>
       </c>
       <c r="C913" s="2" t="s">
@@ -12943,7 +12949,7 @@
       <c r="A914" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B914" s="2" t="s">
+      <c r="B914" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C914" s="2" t="s">
@@ -12954,7 +12960,7 @@
       <c r="A915" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B915" s="2" t="s">
+      <c r="B915" s="4" t="s">
         <v>580</v>
       </c>
       <c r="C915" s="2" t="s">
@@ -12965,7 +12971,7 @@
       <c r="A916" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B916" s="2" t="s">
+      <c r="B916" s="4" t="s">
         <v>581</v>
       </c>
       <c r="C916" s="2" t="s">
@@ -12976,7 +12982,7 @@
       <c r="A917" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B917" s="2" t="s">
+      <c r="B917" s="4" t="s">
         <v>582</v>
       </c>
       <c r="C917" s="2" t="s">
@@ -12987,7 +12993,7 @@
       <c r="A918" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B918" s="2" t="s">
+      <c r="B918" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C918" s="2" t="s">
@@ -12998,7 +13004,7 @@
       <c r="A919" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B919" s="2" t="s">
+      <c r="B919" s="4" t="s">
         <v>584</v>
       </c>
       <c r="C919" s="2" t="s">
@@ -13009,7 +13015,7 @@
       <c r="A920" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B920" s="2" t="s">
+      <c r="B920" s="4" t="s">
         <v>585</v>
       </c>
       <c r="C920" s="2" t="s">
@@ -13020,7 +13026,7 @@
       <c r="A921" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B921" s="2" t="s">
+      <c r="B921" s="4" t="s">
         <v>586</v>
       </c>
       <c r="C921" s="2" t="s">
@@ -13031,7 +13037,7 @@
       <c r="A922" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B922" s="2" t="s">
+      <c r="B922" s="4" t="s">
         <v>587</v>
       </c>
       <c r="C922" s="2" t="s">
@@ -13042,7 +13048,7 @@
       <c r="A923" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B923" s="2" t="s">
+      <c r="B923" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C923" s="2" t="s">
@@ -13053,7 +13059,7 @@
       <c r="A924" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B924" s="2" t="s">
+      <c r="B924" s="4" t="s">
         <v>589</v>
       </c>
       <c r="C924" s="2" t="s">
@@ -13064,7 +13070,7 @@
       <c r="A925" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B925" s="2" t="s">
+      <c r="B925" s="4" t="s">
         <v>590</v>
       </c>
       <c r="C925" s="2" t="s">
@@ -13075,7 +13081,7 @@
       <c r="A926" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B926" s="2" t="s">
+      <c r="B926" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C926" s="2" t="s">
@@ -13086,7 +13092,7 @@
       <c r="A927" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B927" s="2" t="s">
+      <c r="B927" s="4" t="s">
         <v>592</v>
       </c>
       <c r="C927" s="2" t="s">
@@ -13097,7 +13103,7 @@
       <c r="A928" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B928" s="2" t="s">
+      <c r="B928" s="4" t="s">
         <v>593</v>
       </c>
       <c r="C928" s="2" t="s">
@@ -13108,7 +13114,7 @@
       <c r="A929" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B929" s="2" t="s">
+      <c r="B929" s="4" t="s">
         <v>594</v>
       </c>
       <c r="C929" s="2" t="s">
@@ -13119,7 +13125,7 @@
       <c r="A930" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B930" s="2" t="s">
+      <c r="B930" s="4" t="s">
         <v>595</v>
       </c>
       <c r="C930" s="2" t="s">
@@ -13130,7 +13136,7 @@
       <c r="A931" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B931" s="2" t="s">
+      <c r="B931" s="4" t="s">
         <v>596</v>
       </c>
       <c r="C931" s="2" t="s">
@@ -13141,7 +13147,7 @@
       <c r="A932" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B932" s="2" t="s">
+      <c r="B932" s="4" t="s">
         <v>597</v>
       </c>
       <c r="C932" s="2" t="s">
@@ -13152,7 +13158,7 @@
       <c r="A933" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B933" s="2" t="s">
+      <c r="B933" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C933" s="2" t="s">
@@ -13163,7 +13169,7 @@
       <c r="A934" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B934" s="2" t="s">
+      <c r="B934" s="4" t="s">
         <v>599</v>
       </c>
       <c r="C934" s="2" t="s">
@@ -13174,7 +13180,7 @@
       <c r="A935" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B935" s="2" t="s">
+      <c r="B935" s="4" t="s">
         <v>600</v>
       </c>
       <c r="C935" s="2" t="s">
@@ -13185,7 +13191,7 @@
       <c r="A936" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B936" s="2" t="s">
+      <c r="B936" s="4" t="s">
         <v>601</v>
       </c>
       <c r="C936" s="2" t="s">
@@ -13196,7 +13202,7 @@
       <c r="A937" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B937" s="2" t="s">
+      <c r="B937" s="4" t="s">
         <v>602</v>
       </c>
       <c r="C937" s="2" t="s">
@@ -13207,7 +13213,7 @@
       <c r="A938" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B938" s="2" t="s">
+      <c r="B938" s="4" t="s">
         <v>603</v>
       </c>
       <c r="C938" s="2" t="s">
@@ -13218,7 +13224,7 @@
       <c r="A939" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B939" s="2" t="s">
+      <c r="B939" s="4" t="s">
         <v>604</v>
       </c>
       <c r="C939" s="2" t="s">
@@ -13229,7 +13235,7 @@
       <c r="A940" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B940" s="2" t="s">
+      <c r="B940" s="4" t="s">
         <v>605</v>
       </c>
       <c r="C940" s="2" t="s">
@@ -13240,7 +13246,7 @@
       <c r="A941" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B941" s="2" t="s">
+      <c r="B941" s="4" t="s">
         <v>606</v>
       </c>
       <c r="C941" s="2" t="s">
@@ -13251,7 +13257,7 @@
       <c r="A942" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B942" s="2" t="s">
+      <c r="B942" s="4" t="s">
         <v>607</v>
       </c>
       <c r="C942" s="2" t="s">
@@ -13262,7 +13268,7 @@
       <c r="A943" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B943" s="2" t="s">
+      <c r="B943" s="4" t="s">
         <v>608</v>
       </c>
       <c r="C943" s="2" t="s">
@@ -13273,7 +13279,7 @@
       <c r="A944" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B944" s="2" t="s">
+      <c r="B944" s="4" t="s">
         <v>609</v>
       </c>
       <c r="C944" s="2" t="s">
@@ -13284,7 +13290,7 @@
       <c r="A945" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B945" s="2" t="s">
+      <c r="B945" s="4" t="s">
         <v>610</v>
       </c>
       <c r="C945" s="2" t="s">
@@ -13295,7 +13301,7 @@
       <c r="A946" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B946" s="2" t="s">
+      <c r="B946" s="4" t="s">
         <v>611</v>
       </c>
       <c r="C946" s="2" t="s">
@@ -13306,7 +13312,7 @@
       <c r="A947" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B947" s="2" t="s">
+      <c r="B947" s="4" t="s">
         <v>612</v>
       </c>
       <c r="C947" s="2" t="s">
@@ -13317,7 +13323,7 @@
       <c r="A948" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B948" s="2" t="s">
+      <c r="B948" s="4" t="s">
         <v>613</v>
       </c>
       <c r="C948" s="2" t="s">
@@ -13328,7 +13334,7 @@
       <c r="A949" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B949" s="2" t="s">
+      <c r="B949" s="4" t="s">
         <v>614</v>
       </c>
       <c r="C949" s="2" t="s">
@@ -13339,7 +13345,7 @@
       <c r="A950" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B950" s="2" t="s">
+      <c r="B950" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C950" s="2" t="s">
@@ -13350,7 +13356,7 @@
       <c r="A951" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B951" s="2" t="s">
+      <c r="B951" s="4" t="s">
         <v>616</v>
       </c>
       <c r="C951" s="2" t="s">
@@ -13361,7 +13367,7 @@
       <c r="A952" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B952" s="2" t="s">
+      <c r="B952" s="4" t="s">
         <v>617</v>
       </c>
       <c r="C952" s="2" t="s">
@@ -13372,7 +13378,7 @@
       <c r="A953" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B953" s="2" t="s">
+      <c r="B953" s="4" t="s">
         <v>618</v>
       </c>
       <c r="C953" s="2" t="s">
@@ -13383,7 +13389,7 @@
       <c r="A954" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B954" s="2" t="s">
+      <c r="B954" s="4" t="s">
         <v>619</v>
       </c>
       <c r="C954" s="2" t="s">
@@ -13394,7 +13400,7 @@
       <c r="A955" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B955" s="2" t="s">
+      <c r="B955" s="4" t="s">
         <v>620</v>
       </c>
       <c r="C955" s="2" t="s">
@@ -13405,7 +13411,7 @@
       <c r="A956" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B956" s="2" t="s">
+      <c r="B956" s="4" t="s">
         <v>621</v>
       </c>
       <c r="C956" s="2" t="s">
@@ -13416,7 +13422,7 @@
       <c r="A957" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B957" s="2" t="s">
+      <c r="B957" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C957" s="2" t="s">
@@ -13427,7 +13433,7 @@
       <c r="A958" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B958" s="2" t="s">
+      <c r="B958" s="4" t="s">
         <v>623</v>
       </c>
       <c r="C958" s="2" t="s">
@@ -13438,7 +13444,7 @@
       <c r="A959" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B959" s="2" t="s">
+      <c r="B959" s="4" t="s">
         <v>624</v>
       </c>
       <c r="C959" s="2" t="s">
@@ -13449,7 +13455,7 @@
       <c r="A960" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B960" s="2" t="s">
+      <c r="B960" s="4" t="s">
         <v>625</v>
       </c>
       <c r="C960" s="2" t="s">
@@ -13460,7 +13466,7 @@
       <c r="A961" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B961" s="2" t="s">
+      <c r="B961" s="4" t="s">
         <v>626</v>
       </c>
       <c r="C961" s="2" t="s">
@@ -13471,7 +13477,7 @@
       <c r="A962" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B962" s="2" t="s">
+      <c r="B962" s="4" t="s">
         <v>627</v>
       </c>
       <c r="C962" s="2" t="s">
@@ -13482,7 +13488,7 @@
       <c r="A963" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B963" s="2" t="s">
+      <c r="B963" s="4" t="s">
         <v>628</v>
       </c>
       <c r="C963" s="2" t="s">
@@ -13493,7 +13499,7 @@
       <c r="A964" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B964" s="2" t="s">
+      <c r="B964" s="4" t="s">
         <v>629</v>
       </c>
       <c r="C964" s="2" t="s">
@@ -13504,7 +13510,7 @@
       <c r="A965" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B965" s="2" t="s">
+      <c r="B965" s="4" t="s">
         <v>630</v>
       </c>
       <c r="C965" s="2" t="s">
@@ -13515,7 +13521,7 @@
       <c r="A966" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B966" s="2" t="s">
+      <c r="B966" s="4" t="s">
         <v>631</v>
       </c>
       <c r="C966" s="2" t="s">
@@ -13526,7 +13532,7 @@
       <c r="A967" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B967" s="2" t="s">
+      <c r="B967" s="4" t="s">
         <v>632</v>
       </c>
       <c r="C967" s="2" t="s">
@@ -13537,7 +13543,7 @@
       <c r="A968" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B968" s="2" t="s">
+      <c r="B968" s="4" t="s">
         <v>633</v>
       </c>
       <c r="C968" s="2" t="s">
@@ -13548,7 +13554,7 @@
       <c r="A969" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B969" s="2" t="s">
+      <c r="B969" s="4" t="s">
         <v>634</v>
       </c>
       <c r="C969" s="2" t="s">
@@ -13559,7 +13565,7 @@
       <c r="A970" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B970" s="2" t="s">
+      <c r="B970" s="4" t="s">
         <v>635</v>
       </c>
       <c r="C970" s="2" t="s">
@@ -13570,7 +13576,7 @@
       <c r="A971" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B971" s="2" t="s">
+      <c r="B971" s="4" t="s">
         <v>636</v>
       </c>
       <c r="C971" s="2" t="s">
@@ -13581,7 +13587,7 @@
       <c r="A972" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B972" s="2" t="s">
+      <c r="B972" s="4" t="s">
         <v>637</v>
       </c>
       <c r="C972" s="2" t="s">
@@ -13592,7 +13598,7 @@
       <c r="A973" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B973" s="2" t="s">
+      <c r="B973" s="4" t="s">
         <v>638</v>
       </c>
       <c r="C973" s="2" t="s">
@@ -13603,7 +13609,7 @@
       <c r="A974" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B974" s="2" t="s">
+      <c r="B974" s="4" t="s">
         <v>639</v>
       </c>
       <c r="C974" s="2" t="s">
@@ -13614,7 +13620,7 @@
       <c r="A975" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B975" s="2" t="s">
+      <c r="B975" s="4" t="s">
         <v>640</v>
       </c>
       <c r="C975" s="2" t="s">
@@ -13625,7 +13631,7 @@
       <c r="A976" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B976" s="2" t="s">
+      <c r="B976" s="4" t="s">
         <v>641</v>
       </c>
       <c r="C976" s="2" t="s">
@@ -13636,7 +13642,7 @@
       <c r="A977" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B977" s="2" t="s">
+      <c r="B977" s="4" t="s">
         <v>642</v>
       </c>
       <c r="C977" s="2" t="s">
@@ -13647,7 +13653,7 @@
       <c r="A978" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B978" s="2" t="s">
+      <c r="B978" s="4" t="s">
         <v>643</v>
       </c>
       <c r="C978" s="2" t="s">
@@ -13658,7 +13664,7 @@
       <c r="A979" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B979" s="2" t="s">
+      <c r="B979" s="4" t="s">
         <v>644</v>
       </c>
       <c r="C979" s="2" t="s">
@@ -13669,7 +13675,7 @@
       <c r="A980" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B980" s="2" t="s">
+      <c r="B980" s="4" t="s">
         <v>645</v>
       </c>
       <c r="C980" s="2" t="s">
@@ -13680,7 +13686,7 @@
       <c r="A981" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B981" s="2" t="s">
+      <c r="B981" s="4" t="s">
         <v>646</v>
       </c>
       <c r="C981" s="2" t="s">
@@ -13691,7 +13697,7 @@
       <c r="A982" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B982" s="2" t="s">
+      <c r="B982" s="4" t="s">
         <v>647</v>
       </c>
       <c r="C982" s="2" t="s">
@@ -13702,7 +13708,7 @@
       <c r="A983" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B983" s="2" t="s">
+      <c r="B983" s="4" t="s">
         <v>648</v>
       </c>
       <c r="C983" s="2" t="s">
@@ -13713,7 +13719,7 @@
       <c r="A984" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B984" s="2" t="s">
+      <c r="B984" s="4" t="s">
         <v>649</v>
       </c>
       <c r="C984" s="2" t="s">
@@ -13724,7 +13730,7 @@
       <c r="A985" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B985" s="2" t="s">
+      <c r="B985" s="4" t="s">
         <v>650</v>
       </c>
       <c r="C985" s="2" t="s">
@@ -13735,7 +13741,7 @@
       <c r="A986" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B986" s="2" t="s">
+      <c r="B986" s="4" t="s">
         <v>651</v>
       </c>
       <c r="C986" s="2" t="s">
@@ -13746,7 +13752,7 @@
       <c r="A987" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B987" s="2" t="s">
+      <c r="B987" s="4" t="s">
         <v>652</v>
       </c>
       <c r="C987" s="2" t="s">
@@ -13757,7 +13763,7 @@
       <c r="A988" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B988" s="2" t="s">
+      <c r="B988" s="4" t="s">
         <v>653</v>
       </c>
       <c r="C988" s="2" t="s">
@@ -13768,7 +13774,7 @@
       <c r="A989" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B989" s="2" t="s">
+      <c r="B989" s="4" t="s">
         <v>654</v>
       </c>
       <c r="C989" s="2" t="s">
@@ -13779,7 +13785,7 @@
       <c r="A990" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B990" s="2" t="s">
+      <c r="B990" s="4" t="s">
         <v>655</v>
       </c>
       <c r="C990" s="2" t="s">
@@ -13790,7 +13796,7 @@
       <c r="A991" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B991" s="2" t="s">
+      <c r="B991" s="4" t="s">
         <v>656</v>
       </c>
       <c r="C991" s="2" t="s">
@@ -13801,7 +13807,7 @@
       <c r="A992" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B992" s="2" t="s">
+      <c r="B992" s="4" t="s">
         <v>657</v>
       </c>
       <c r="C992" s="2" t="s">
@@ -13812,7 +13818,7 @@
       <c r="A993" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B993" s="2" t="s">
+      <c r="B993" s="4" t="s">
         <v>658</v>
       </c>
       <c r="C993" s="2" t="s">
@@ -13823,7 +13829,7 @@
       <c r="A994" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B994" s="2" t="s">
+      <c r="B994" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C994" s="2" t="s">
@@ -13834,7 +13840,7 @@
       <c r="A995" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B995" s="2" t="s">
+      <c r="B995" s="4" t="s">
         <v>660</v>
       </c>
       <c r="C995" s="2" t="s">
@@ -13845,7 +13851,7 @@
       <c r="A996" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B996" s="2" t="s">
+      <c r="B996" s="4" t="s">
         <v>661</v>
       </c>
       <c r="C996" s="2" t="s">
@@ -13856,7 +13862,7 @@
       <c r="A997" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B997" s="2" t="s">
+      <c r="B997" s="4" t="s">
         <v>662</v>
       </c>
       <c r="C997" s="2" t="s">
@@ -13867,7 +13873,7 @@
       <c r="A998" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B998" s="2" t="s">
+      <c r="B998" s="4" t="s">
         <v>663</v>
       </c>
       <c r="C998" s="2" t="s">
@@ -13878,7 +13884,7 @@
       <c r="A999" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B999" s="2" t="s">
+      <c r="B999" s="4" t="s">
         <v>664</v>
       </c>
       <c r="C999" s="2" t="s">
@@ -13889,7 +13895,7 @@
       <c r="A1000" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B1000" s="2" t="s">
+      <c r="B1000" s="4" t="s">
         <v>670</v>
       </c>
       <c r="C1000" s="2" t="s">
@@ -13900,4 +13906,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>